--- a/01_data/02_prod/LAIT Data Dictionary.xlsx
+++ b/01_data/02_prod/LAIT Data Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtufts\Documents\no_net_work\Open source\local-authority-interactive-tool\01_data\02_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADABEE6E-3C4D-4068-A9C8-C862678C75FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530641EE-521D-4548-AE9D-F9990B62A386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{7F2D0E90-CC36-463B-BABF-1BFFDB295017}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{7F2D0E90-CC36-463B-BABF-1BFFDB295017}"/>
   </bookViews>
   <sheets>
     <sheet name="Data for Jake" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9334" uniqueCount="1768">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9334" uniqueCount="2056">
   <si>
     <t>Location of data in source files</t>
   </si>
@@ -5815,6 +5815,870 @@
   <si>
     <t>dps</t>
   </si>
+  <si>
+    <t>Child Protection Plans reviewed within the required timescales - number</t>
+  </si>
+  <si>
+    <t>Children who became the subject of a plan for a second or subsequent time - number</t>
+  </si>
+  <si>
+    <t>Children who became the subject of a plan for a second or subsequent time (%)</t>
+  </si>
+  <si>
+    <t>Children subject to Child Protection Plans lasting 2 years or more (%)</t>
+  </si>
+  <si>
+    <t>Child Protection Plans lasting 2 years or more which cease during the year (%)</t>
+  </si>
+  <si>
+    <t>Child protection plans which ceased during the year (rate)</t>
+  </si>
+  <si>
+    <t>Children subject to child protection plan continuously for 2 years or more (number)</t>
+  </si>
+  <si>
+    <t>Cafcass Care applications (rate)</t>
+  </si>
+  <si>
+    <t>Number of children's social workers (FTE)</t>
+  </si>
+  <si>
+    <t>Social worker vacancies (%)</t>
+  </si>
+  <si>
+    <t>Social worker turnover (%)</t>
+  </si>
+  <si>
+    <t>Agency social workers (%)</t>
+  </si>
+  <si>
+    <t>Agency social workers covering vacancies (%)</t>
+  </si>
+  <si>
+    <t>Average number of cases per children and family social worker (FTE)</t>
+  </si>
+  <si>
+    <t>2 year old children benefitting from funded early education (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 year old children benefitting from funded early education (num)</t>
+  </si>
+  <si>
+    <t>Take up of 3 and 4 years olds benefitting from some free early education (%)</t>
+  </si>
+  <si>
+    <t>Take up of 3 and 4 years olds benefitting from some free early education (num)</t>
+  </si>
+  <si>
+    <t>2 year old children benefitting from funded early education, in Good/Outstanding provider (%)</t>
+  </si>
+  <si>
+    <t>3 and 4 year old children benefitting from funded early education, in Good/Outstanding provider (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2, 3 &amp; 4 yr olds in funded early education at providers with staff with graduate status (%)</t>
+  </si>
+  <si>
+    <t>Overall Absence for 4 year olds (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development at end of early years foundation stage (%)</t>
+  </si>
+  <si>
+    <t>Children achieving expected standard across all early learning goals (%)</t>
+  </si>
+  <si>
+    <t>Average total points score (across all the Early Learning Goals)</t>
+  </si>
+  <si>
+    <t>Inequality gap in achievement across all the Early Learning Goals (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Communication and Language (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Physical Development (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Personal, social and emotional development (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Literacy (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Mathematics (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Understanding the world (%)</t>
+  </si>
+  <si>
+    <t>Children achieving at least the expected level in EYFS - Expressive arts and design (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - White (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Mixed (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Asian (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Black (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Chinese (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Other Ethnic (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>Children achieving good level of development in EYFS - Non FSM (%)</t>
+  </si>
+  <si>
+    <t>Good level of development achieved - Pupils with SEN, without EHCP (%)</t>
+  </si>
+  <si>
+    <t>% Good level of development achieved - Pupils with EHCP (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Reading Expected Standard (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Reading Greater Depth (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Writing Expected Standard (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Writing Greater Depth (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Maths Expected Standard (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Maths Greater Depth (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving Key Stage 1 Science Expected Standard (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving expected level in Phonics decoding - all pupils (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving expected level in Phonics decoding - FSM (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the higher standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the expected standard in reading (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the higher standard in reading (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the expected standard in Grammar, Punctuation &amp; Spelling (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the higher standard in Grammar, Punctuation &amp; Spelling (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the expected standard in maths (%)</t>
+  </si>
+  <si>
+    <t>Pupils meeting the higher standard in maths (%)</t>
+  </si>
+  <si>
+    <t>Key Stage 2 teacher assessments - Pupils meeting the expected standard in writing (%)</t>
+  </si>
+  <si>
+    <t>Key Stage 2 teacher assessments - Pupils working at greater depth in writing (%)</t>
+  </si>
+  <si>
+    <t>Key Stage 2 teacher assessments - Pupils meeting the expected standard in Science (%)</t>
+  </si>
+  <si>
+    <t>Pupils eligible for free school meals meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Pupils not eligible for free school meals meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Disadvantaged pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Non-disadvantaged pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>White pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Mixed race pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Asian pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Black pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Chinese pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Other ethnic pupils meeting the expected standard in reading, writing and mathematics (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving 9-5 pass in English and Maths (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving 9-4 pass in English and Maths (%)</t>
+  </si>
+  <si>
+    <t>Pupils entered for English Baccalaureate (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving the English Baccalaureate (inc 9-5 pass in English and maths) (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving the English Baccalaureate (inc 9-4 pass in English and maths) (%)</t>
+  </si>
+  <si>
+    <t>Average Attainment 8 score per disadvantaged pupil</t>
+  </si>
+  <si>
+    <t>Average Attainment 8 score per non-disadvantaged pupil</t>
+  </si>
+  <si>
+    <t>Average Progress 8 score per disadvantaged pupil</t>
+  </si>
+  <si>
+    <t>Average Progress 8 score per non-disadvantaged pupil</t>
+  </si>
+  <si>
+    <t>Average Attainment 8 score per pupil - Chinese</t>
+  </si>
+  <si>
+    <t>Average Progress 8 score per pupil - Chinese</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, any education destination (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in education &amp; employment/training (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, an education or employment destination - Further education college (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, an education or employment destination - 6 Form School (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, an education or employment destination - 6 Form College (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, an education or employment destination - Apprenticeships (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, an education or employment destination  - Destination not sustained (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving 3+ A grades at GCE/Applied GCE A Level and Double Awards (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving grades AAB or better at GCE A level, Applied GCE A level and Double Award A level (%)</t>
+  </si>
+  <si>
+    <t>Pupils achieving grades AAB or better at A level, of which at least two are in facilitating subjects (%)</t>
+  </si>
+  <si>
+    <t>Level 2 qualification by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>Level 2 qualification by the age of 19 - FSM pupils (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 NOT eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>Level 2 qualification with English and Maths by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 with English and Maths NOT eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 with English and Maths eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>Inequality gap in the achievement of a Level 2 qualification by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>Inequality gap in the achievement of a Level 2 qualification inc E&amp;M by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>Level 2 in English and Maths at age 19 for those who had not achieved this level at 16 (%)</t>
+  </si>
+  <si>
+    <t>Level 3 qualification by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>Level 3 qualification by the age of 19 - FSM Pupils (%)</t>
+  </si>
+  <si>
+    <t>Level 3 qualification by the age of 19 - Pupils not eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>Inequality gap in the achievement of a Level 3 qualification by the age of 19 (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted - application unopposed (num)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted - consent dispensed with (num)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted - application unopposed (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted - consent dispensed with (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted in year (number)</t>
+  </si>
+  <si>
+    <t>Children looked after who were adopted in year (%)</t>
+  </si>
+  <si>
+    <t>Looked After Children (num)</t>
+  </si>
+  <si>
+    <t>Children who started to be looked after (num)</t>
+  </si>
+  <si>
+    <t>Children who ceased to be looked after during the year (num)</t>
+  </si>
+  <si>
+    <t>Children starting to be looked after each year (rate)</t>
+  </si>
+  <si>
+    <t>Children ceasing to be looked after each year (rate)</t>
+  </si>
+  <si>
+    <t>Looked After Pupils meeting the expected standard in Reading (%)</t>
+  </si>
+  <si>
+    <t>Looked After Pupils meeting the expected standard in Writing (%)</t>
+  </si>
+  <si>
+    <t>Looked After Pupils meeting the expected standard in Maths (%)</t>
+  </si>
+  <si>
+    <t>Looked After Pupils meeting the expected standard in Grammar, Punctuation and Spelling (%)</t>
+  </si>
+  <si>
+    <t>Looked After Pupils meeting the expected standard in Reading, Writing and Maths (%)</t>
+  </si>
+  <si>
+    <t>LAC pupils achieving 9-4 pass in English and Maths (%)</t>
+  </si>
+  <si>
+    <t>Children who have been looked after continuously for at least 12 months with at least one fixed term exclusion (%)</t>
+  </si>
+  <si>
+    <t>Unauthorised absence from school of children who have been looked after continuously for at least 12 months (%)</t>
+  </si>
+  <si>
+    <t>Total absence from school of children who have been looked after continuously for at least 12 months (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who are classed as persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who receive SEN support (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who have a statement of SEN/EHCP (%)</t>
+  </si>
+  <si>
+    <t>Children looked after at 31 March with three or more placements during the year (%)</t>
+  </si>
+  <si>
+    <t>Looked after children with three or more placements during the year (num)</t>
+  </si>
+  <si>
+    <t>Children living in the same placement for at least 2 years, or are placed for adoption and their adoption and their adoptive placement together with their previous placement, last for at least 2 years (%)</t>
+  </si>
+  <si>
+    <t>Children living in the same placement for at least 2 years, or are placed for adoption and their adoption and their adoptive placement together with their previous placement, last for at least 2 years (Num)</t>
+  </si>
+  <si>
+    <t>Children looked after with a mid-year school move (%)</t>
+  </si>
+  <si>
+    <t>Children looked after at 31 March, placed more than 20 miles from their homes, outside LA boundary (%)</t>
+  </si>
+  <si>
+    <t>Approved foster places (num)</t>
+  </si>
+  <si>
+    <t>Foster places that were filled: number of children placed (num)</t>
+  </si>
+  <si>
+    <t>Approved foster places (excluding family and friends fostering) (num)</t>
+  </si>
+  <si>
+    <t>Foster places that were filled: number of children placed (excluding family and friends fostering) (num)</t>
+  </si>
+  <si>
+    <t>LAC ceased because of a Special Guardianship Order - former foster carer - Relative/Friend (%)</t>
+  </si>
+  <si>
+    <t>LAC ceased because of a Special Guardianship Order - former foster carer - Other (%)</t>
+  </si>
+  <si>
+    <t>LAC ceased because of a Special Guardianship Order - Carer other than former foster carer - Relative/Friend (%)</t>
+  </si>
+  <si>
+    <t>LAC Return home to live with parents or other person with parental responsibility part of the care plan (%)</t>
+  </si>
+  <si>
+    <t>LAC Return home to live with parents or other person with parental responsibility NOT part of the care plan (%)</t>
+  </si>
+  <si>
+    <t>Children looked after for 12 months or more who are convicted or subject to a youth caution (%)</t>
+  </si>
+  <si>
+    <t>Children looked after having health checks (%)</t>
+  </si>
+  <si>
+    <t>Children looked after whom have up to date immunisations (%)</t>
+  </si>
+  <si>
+    <t>Children looked after who received dental checks (%)</t>
+  </si>
+  <si>
+    <t>Children looked after identified as having a substance misuse problem during the year (%)</t>
+  </si>
+  <si>
+    <t>Emotional and Behavioural Health of Looked after Children (SDQ Score)</t>
+  </si>
+  <si>
+    <t>Care Leavers 19-21 year old - former relevant young people (num)</t>
+  </si>
+  <si>
+    <t>Care Leavers 19-21 year old in suitable accommodation (%)</t>
+  </si>
+  <si>
+    <t>Care Leavers 19-21 year olds in suitable accommodation (num)</t>
+  </si>
+  <si>
+    <t>Care Leavers 19-21 year olds in  Education, Employment or Training (%)</t>
+  </si>
+  <si>
+    <t>Former relevant young people who were in education, employment or training (19-21 years) (num)</t>
+  </si>
+  <si>
+    <t>Care leavers 19-21 year olds who were in higher education (%)</t>
+  </si>
+  <si>
+    <t>Former relevant 19-21 year old young people who were in higher education (num)</t>
+  </si>
+  <si>
+    <t>Care leavers 19-21 year olds who were in not in education, training or employment (%)</t>
+  </si>
+  <si>
+    <t>Care Leavers 19-21 year olds whom the Local Authority are not in touch (%)</t>
+  </si>
+  <si>
+    <t>Care leavers aged 19 or 20 who ceased to be looked after on their 18th birthday, and remain with their former foster  (%)</t>
+  </si>
+  <si>
+    <t>Children Looked after whom had a missing incident during the year (%)</t>
+  </si>
+  <si>
+    <t>Children Looked after who were away from placement without authorisation during the year (%)</t>
+  </si>
+  <si>
+    <t>Unaccompanied Asylum Seeking Children looked after at 31 March (num)</t>
+  </si>
+  <si>
+    <t>Children in Need (rate)</t>
+  </si>
+  <si>
+    <t>Children in need by duration (under 3 months) (%)</t>
+  </si>
+  <si>
+    <t>Children in need by duration (3-6 months) (%)</t>
+  </si>
+  <si>
+    <t>Children in need by duration (6 months - 1 year) (%)</t>
+  </si>
+  <si>
+    <t>Children in need by duration (1 - 2 years) (%)</t>
+  </si>
+  <si>
+    <t>Children in need by duration (2 years or more) (%)</t>
+  </si>
+  <si>
+    <t>Children who cease to be in need by duration (under 3 months) (%)</t>
+  </si>
+  <si>
+    <t>Children who cease to be in need by duration (3-6 months) (%)</t>
+  </si>
+  <si>
+    <t>Children who cease to be in need by duration (6 months - 1 year) (%)</t>
+  </si>
+  <si>
+    <t>Children who cease to be in need by duration (1 - 2 years) (%)</t>
+  </si>
+  <si>
+    <t>Children who cease to be in need by duration (2 years or more) (%)</t>
+  </si>
+  <si>
+    <t>School-age children in need with SEN support (%)</t>
+  </si>
+  <si>
+    <t>School-age children in need with no SEN provision (%)</t>
+  </si>
+  <si>
+    <t>School-age children in ceed with a Statement/EHCP (%)</t>
+  </si>
+  <si>
+    <t>School-age children in need eligible for FSM (%)</t>
+  </si>
+  <si>
+    <t>Children in need meeting expected KS2 standard in Maths (%)</t>
+  </si>
+  <si>
+    <t>Children in need meeting expected KS2 standard in Reading (%)</t>
+  </si>
+  <si>
+    <t>Children in need meeting expected KS2 standard KS2 in Writing (%)</t>
+  </si>
+  <si>
+    <t>Children in need meeting expected KS2 standard KS2 in Grammar, Punctuation and Spelling (%)</t>
+  </si>
+  <si>
+    <t>Children in need meeting expected KS2 standard in Reading, Writing and Maths (%)</t>
+  </si>
+  <si>
+    <t>Children in need average Attainment 8 score per pupil KS4</t>
+  </si>
+  <si>
+    <t>Children in need average Progress 8 score</t>
+  </si>
+  <si>
+    <t>CIN pupils achieving 9-5 pass in English and Maths (%)</t>
+  </si>
+  <si>
+    <t>CIN pupils achieving 9-4 pass in English and Maths (%)</t>
+  </si>
+  <si>
+    <t>CIN pupils entered for English Baccalaureate (%)</t>
+  </si>
+  <si>
+    <t>CIN pupils achieving the English Baccalaureate (Average Point Score)</t>
+  </si>
+  <si>
+    <t>Children in need who missed sessions through authorised absence (%)</t>
+  </si>
+  <si>
+    <t>Children in need who missed sessions through unauthorised absence (%)</t>
+  </si>
+  <si>
+    <t>Children in need who missed sessions - overall absence (%)</t>
+  </si>
+  <si>
+    <t>Children in need subject to a Child Protection Plan sessions missed  - overall absence (%)</t>
+  </si>
+  <si>
+    <t>Children in need who are persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Children in need subject to a Child Protection Plan who are persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Children in need with at least one fixed period exclusion (%)</t>
+  </si>
+  <si>
+    <t>Children in need with at least one permanent exclusion (%)</t>
+  </si>
+  <si>
+    <t>New EHC plans issued within 20 weeks - excluding exception cases (%)</t>
+  </si>
+  <si>
+    <t>All new  EHC plans issued within 20 weeks (%)</t>
+  </si>
+  <si>
+    <t>Newly issued EHC plans with a placement in LA maintained mainstream schools (%)</t>
+  </si>
+  <si>
+    <t>SEND Tribunal appeals rate based on total appealable decisions (%)</t>
+  </si>
+  <si>
+    <t>Children meeting expected KS2 standard in Reading, Writing and Maths - No SEND provision (%)</t>
+  </si>
+  <si>
+    <t>Children meeting expected KS2 standard in Reading, Writing and Maths - SEN Support (%)</t>
+  </si>
+  <si>
+    <t>Children meeting expected KS2 standard in Reading, Writing and Maths - EHCPs (%)</t>
+  </si>
+  <si>
+    <t>English Baccalaureate with SEN Support - Entries (%)</t>
+  </si>
+  <si>
+    <t>English Baccalaureate with SEN Statement/EHCP - Entries (%)</t>
+  </si>
+  <si>
+    <t>English Baccalaureate with no identified SEN - Entries (%)</t>
+  </si>
+  <si>
+    <t>Primary pupils who have an EHC Plan (%)</t>
+  </si>
+  <si>
+    <t>Secondary pupils who have EHC Plan (%)</t>
+  </si>
+  <si>
+    <t>Total pupils who have an EHC Plan (%)</t>
+  </si>
+  <si>
+    <t>Primary SEN pupils without EHC plan (%)</t>
+  </si>
+  <si>
+    <t>Secondary SEN pupils without EHC Plan (%)</t>
+  </si>
+  <si>
+    <t>Total pupils with Special Educational Needs (SEN) Support (%)</t>
+  </si>
+  <si>
+    <t>KS4 cohort going to, or remaining in, any education destination - All Pupils (%)</t>
+  </si>
+  <si>
+    <t>KS4 All Pupils going to, or remaining in education &amp; employment/training (%)</t>
+  </si>
+  <si>
+    <t>KS4 SEN pupils with SEN Support going to, or remaining in education &amp; employment/training overall (inc special schools) (%)</t>
+  </si>
+  <si>
+    <t>KS4 SEN pupils With EHCP going to, or remaining in education &amp; employment/training overall (inc special schools) (%)</t>
+  </si>
+  <si>
+    <t>KS4 None SEN pupils going to, or remaining in education &amp; employment/training overall (inc special schools) (%)</t>
+  </si>
+  <si>
+    <t>KS4 SEN cohort in Education, Employment or Training at 17 (inc special schools) (%)</t>
+  </si>
+  <si>
+    <t>16-17 yr olds with SEN in education &amp; training, as at 31 March (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 - Non SEN (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 - with SEN Support (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2 - with EHCP (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2, inc English &amp; Maths - Non SEN (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2, inc English &amp; Maths - with SEN Support (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 2, inc English &amp; Maths - with EHCP (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 3 - Non SEN (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 3 - with SEN Support (%)</t>
+  </si>
+  <si>
+    <t>19 year olds qualified to Level 3 - with EHCP (%)</t>
+  </si>
+  <si>
+    <t>16 &amp; 17 year olds in Education or Training, as at 31 March (%)</t>
+  </si>
+  <si>
+    <t>Offers of education or training made to 16 and 17 year olds (%)</t>
+  </si>
+  <si>
+    <t>15 year old pupils from state funded schools entered Higher Education by age 19 - FSM  (%)</t>
+  </si>
+  <si>
+    <t>15 year old pupils from state funded schools entered Higher Education by age 19 - Non-FSM (%)</t>
+  </si>
+  <si>
+    <t>15 year old pupils from state funded schools entered Higher Education by age 19 - Total (%)</t>
+  </si>
+  <si>
+    <t>Total authorised absence from Primary Schools (%)</t>
+  </si>
+  <si>
+    <t>Total unauthorised absence from Primary Schools (%)</t>
+  </si>
+  <si>
+    <t>Total absence from Primary Schools (%)</t>
+  </si>
+  <si>
+    <t>Total authorised absence from Secondary Schools (%)</t>
+  </si>
+  <si>
+    <t>Total unauthorised absence from Secondary Schools (%)</t>
+  </si>
+  <si>
+    <t>Total absence from Secondary Schools (%)</t>
+  </si>
+  <si>
+    <t>Authorised sessions missed State-funded primary, secondary and special schools (%)</t>
+  </si>
+  <si>
+    <t>Unauthorised sessions missed State-funded primary, secondary and special schools (%)</t>
+  </si>
+  <si>
+    <t>Total School Absence (%)</t>
+  </si>
+  <si>
+    <t>Total school aged children  classed as persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Secondary school aged children classed as persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Primary school aged children classed as persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Total Permanent Exclusions (%)</t>
+  </si>
+  <si>
+    <t>Total suspensions (%)</t>
+  </si>
+  <si>
+    <t>Total school pupils with one or more suspensions (%)</t>
+  </si>
+  <si>
+    <t>Primary school suspensions (%)</t>
+  </si>
+  <si>
+    <t>Primary school pupils with one or more suspensions (%)</t>
+  </si>
+  <si>
+    <t>Primary Permanent Exclusions (%)</t>
+  </si>
+  <si>
+    <t>Secondary school suspensions (%)</t>
+  </si>
+  <si>
+    <t>Secondary school pupils with one or more suspensions (%)</t>
+  </si>
+  <si>
+    <t>Secondary Permanent Exclusions (%)</t>
+  </si>
+  <si>
+    <t>Special school suspensions (%)</t>
+  </si>
+  <si>
+    <t>Special school pupils with one or more suspensions (%)</t>
+  </si>
+  <si>
+    <t>Special school permanent exclusions (%)</t>
+  </si>
+  <si>
+    <t>Unauthorised absence of children who have been looked after continuously for at least 12 months (%)</t>
+  </si>
+  <si>
+    <t>Overall absence of children who have been looked after continuously for at least 12 months (%)</t>
+  </si>
+  <si>
+    <t>Children in Need who missed sessions through authorised absence (%)</t>
+  </si>
+  <si>
+    <t>Children in Need who missed session - through overall absence (%)</t>
+  </si>
+  <si>
+    <t>Children in Need subject to a Child Protection Plan sessions missed  - Total absence (%)</t>
+  </si>
+  <si>
+    <t>Children in Need who are persistent absentees (%)</t>
+  </si>
+  <si>
+    <t>Children who have been looked after continuously for at least twelve months with at least one fixed term exclusion (%)</t>
+  </si>
+  <si>
+    <t>Children in Need with at least one fixed period exclusion (%)</t>
+  </si>
+  <si>
+    <t>First Time entrants to the Youth Justice System (rate)</t>
+  </si>
+  <si>
+    <t>Children cautioned or sentenced (rate)</t>
+  </si>
+  <si>
+    <t>Proportion of young offenders who re-offend (10-14 year olds) (%)</t>
+  </si>
+  <si>
+    <t>Proportion of young offenders who re-offend (15-17 year olds) (%)</t>
+  </si>
+  <si>
+    <t>Children living in low income families (under 16) (%)</t>
+  </si>
+  <si>
+    <t>Primary pupils eligible for free school meals (%)</t>
+  </si>
+  <si>
+    <t>Secondary pupils eligible for free school meals (%)</t>
+  </si>
+  <si>
+    <t>16-17 year olds that are Not in Education, Employment or Training (%)</t>
+  </si>
+  <si>
+    <t>16-17 year olds whose current activity, in relation to NEET, is not known (%)</t>
+  </si>
+  <si>
+    <t>16-17 year olds whose current activity, is not known (%)</t>
+  </si>
+  <si>
+    <t>Primary pupils whose first language is other than English (%)</t>
+  </si>
+  <si>
+    <t>Secondary pupils whose first language is other than English (%)</t>
+  </si>
+  <si>
+    <t>Pupils eligible for Pupil Premium (num)</t>
+  </si>
+  <si>
+    <t>Sure Start Children's Centres and Early Years - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Children Looked After - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Other children's and families services - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Safeguarding Children and Young Peoples Services - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Family Support Services - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Services for Young People  - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Youth Justice  - Gross Expenditure</t>
+  </si>
+  <si>
+    <t>Leaving Care Support  - Gross Expenditure</t>
+  </si>
 </sst>
 </file>
 
@@ -5823,7 +6687,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5868,6 +6732,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -5947,7 +6817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
@@ -5976,17 +6846,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -6324,11 +7195,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9BED91F-DDD6-4407-A686-CB09ABE1E66E}">
   <dimension ref="A1:X456"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="2" topLeftCell="W3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6352,16 +7223,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
@@ -6383,7 +7254,7 @@
       <c r="F2" t="s">
         <v>1765</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="18" t="s">
         <v>1766</v>
       </c>
       <c r="H2" t="s">
@@ -6395,22 +7266,22 @@
       <c r="J2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
       <c r="R2" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="S2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="T2" s="19" t="s">
         <v>8</v>
       </c>
       <c r="U2" t="s">
@@ -25843,6 +26714,26 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I446:J446"/>
     <mergeCell ref="I419:J419"/>
     <mergeCell ref="I420:J420"/>
@@ -25858,26 +26749,6 @@
     <mergeCell ref="I431:J431"/>
     <mergeCell ref="I432:J432"/>
     <mergeCell ref="I433:J433"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I1:P1"/>
-    <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -25892,8 +26763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{300AEE05-EED1-4A6B-853C-CE9DFCDA4A55}">
   <dimension ref="A1:P413"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D389" workbookViewId="0">
+      <selection activeCell="D412" sqref="D412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25932,7 +26803,7 @@
       <c r="F1" t="s">
         <v>1765</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>1766</v>
       </c>
       <c r="H1" t="s">
@@ -25944,10 +26815,10 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="19" t="s">
         <v>8</v>
       </c>
       <c r="M1" t="s">
@@ -27544,8 +28415,8 @@
       <c r="C37" t="s">
         <v>197</v>
       </c>
-      <c r="D37" t="s">
-        <v>197</v>
+      <c r="D37" s="17" t="s">
+        <v>1768</v>
       </c>
       <c r="E37" t="s">
         <v>198</v>
@@ -27588,8 +28459,8 @@
       <c r="C38" t="s">
         <v>201</v>
       </c>
-      <c r="D38" t="s">
-        <v>1472</v>
+      <c r="D38" s="17" t="s">
+        <v>1769</v>
       </c>
       <c r="E38" t="s">
         <v>202</v>
@@ -27632,8 +28503,8 @@
       <c r="C39" t="s">
         <v>208</v>
       </c>
-      <c r="D39" t="s">
-        <v>1729</v>
+      <c r="D39" s="17" t="s">
+        <v>1770</v>
       </c>
       <c r="E39" t="s">
         <v>209</v>
@@ -27676,8 +28547,8 @@
       <c r="C40" t="s">
         <v>213</v>
       </c>
-      <c r="D40" t="s">
-        <v>1473</v>
+      <c r="D40" s="17" t="s">
+        <v>1771</v>
       </c>
       <c r="E40" t="s">
         <v>214</v>
@@ -27720,8 +28591,8 @@
       <c r="C41" t="s">
         <v>220</v>
       </c>
-      <c r="D41" t="s">
-        <v>220</v>
+      <c r="D41" s="17" t="s">
+        <v>1772</v>
       </c>
       <c r="E41" t="s">
         <v>221</v>
@@ -27764,8 +28635,8 @@
       <c r="C42" t="s">
         <v>226</v>
       </c>
-      <c r="D42" t="s">
-        <v>1474</v>
+      <c r="D42" s="17" t="s">
+        <v>1773</v>
       </c>
       <c r="E42" t="s">
         <v>227</v>
@@ -27808,8 +28679,8 @@
       <c r="C43" t="s">
         <v>231</v>
       </c>
-      <c r="D43" t="s">
-        <v>1475</v>
+      <c r="D43" s="17" t="s">
+        <v>1774</v>
       </c>
       <c r="E43" t="s">
         <v>232</v>
@@ -27852,8 +28723,8 @@
       <c r="C44" t="s">
         <v>237</v>
       </c>
-      <c r="D44" t="s">
-        <v>237</v>
+      <c r="D44" s="17" t="s">
+        <v>1775</v>
       </c>
       <c r="E44" t="s">
         <v>238</v>
@@ -27896,8 +28767,8 @@
       <c r="C45" t="s">
         <v>245</v>
       </c>
-      <c r="D45" t="s">
-        <v>245</v>
+      <c r="D45" s="17" t="s">
+        <v>1776</v>
       </c>
       <c r="E45" t="s">
         <v>246</v>
@@ -27940,8 +28811,8 @@
       <c r="C46" t="s">
         <v>254</v>
       </c>
-      <c r="D46" t="s">
-        <v>254</v>
+      <c r="D46" s="17" t="s">
+        <v>1777</v>
       </c>
       <c r="E46" t="s">
         <v>255</v>
@@ -27984,8 +28855,8 @@
       <c r="C47" t="s">
         <v>258</v>
       </c>
-      <c r="D47" t="s">
-        <v>258</v>
+      <c r="D47" s="17" t="s">
+        <v>1778</v>
       </c>
       <c r="E47" t="s">
         <v>259</v>
@@ -28028,8 +28899,8 @@
       <c r="C48" t="s">
         <v>262</v>
       </c>
-      <c r="D48" t="s">
-        <v>262</v>
+      <c r="D48" s="17" t="s">
+        <v>1779</v>
       </c>
       <c r="E48" t="s">
         <v>263</v>
@@ -28072,8 +28943,8 @@
       <c r="C49" t="s">
         <v>266</v>
       </c>
-      <c r="D49" t="s">
-        <v>266</v>
+      <c r="D49" s="17" t="s">
+        <v>1780</v>
       </c>
       <c r="E49" t="s">
         <v>267</v>
@@ -28116,7 +28987,7 @@
       <c r="C50" t="s">
         <v>269</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="17" t="s">
         <v>1476</v>
       </c>
       <c r="E50" t="s">
@@ -28160,7 +29031,7 @@
       <c r="C51" t="s">
         <v>273</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="17" t="s">
         <v>273</v>
       </c>
       <c r="E51" t="s">
@@ -28204,8 +29075,8 @@
       <c r="C52" t="s">
         <v>277</v>
       </c>
-      <c r="D52" t="s">
-        <v>277</v>
+      <c r="D52" s="17" t="s">
+        <v>1781</v>
       </c>
       <c r="E52" t="s">
         <v>278</v>
@@ -28248,8 +29119,8 @@
       <c r="C53" t="s">
         <v>290</v>
       </c>
-      <c r="D53" t="s">
-        <v>290</v>
+      <c r="D53" s="17" t="s">
+        <v>1782</v>
       </c>
       <c r="E53" t="s">
         <v>291</v>
@@ -28292,8 +29163,8 @@
       <c r="C54" t="s">
         <v>300</v>
       </c>
-      <c r="D54" t="s">
-        <v>300</v>
+      <c r="D54" s="17" t="s">
+        <v>1783</v>
       </c>
       <c r="E54" t="s">
         <v>301</v>
@@ -28336,8 +29207,8 @@
       <c r="C55" t="s">
         <v>304</v>
       </c>
-      <c r="D55" t="s">
-        <v>1477</v>
+      <c r="D55" s="17" t="s">
+        <v>1784</v>
       </c>
       <c r="E55" t="s">
         <v>305</v>
@@ -28380,8 +29251,8 @@
       <c r="C56" t="s">
         <v>308</v>
       </c>
-      <c r="D56" t="s">
-        <v>1478</v>
+      <c r="D56" s="17" t="s">
+        <v>1785</v>
       </c>
       <c r="E56" t="s">
         <v>309</v>
@@ -28424,8 +29295,8 @@
       <c r="C57" t="s">
         <v>311</v>
       </c>
-      <c r="D57" t="s">
-        <v>1479</v>
+      <c r="D57" s="17" t="s">
+        <v>1786</v>
       </c>
       <c r="E57" t="s">
         <v>312</v>
@@ -28468,8 +29339,8 @@
       <c r="C58" t="s">
         <v>318</v>
       </c>
-      <c r="D58" t="s">
-        <v>1480</v>
+      <c r="D58" s="17" t="s">
+        <v>1787</v>
       </c>
       <c r="E58" t="s">
         <v>319</v>
@@ -28512,8 +29383,8 @@
       <c r="C59" t="s">
         <v>321</v>
       </c>
-      <c r="D59" t="s">
-        <v>321</v>
+      <c r="D59" s="17" t="s">
+        <v>1788</v>
       </c>
       <c r="E59" t="s">
         <v>322</v>
@@ -28556,8 +29427,8 @@
       <c r="C60" t="s">
         <v>328</v>
       </c>
-      <c r="D60" t="s">
-        <v>1481</v>
+      <c r="D60" s="17" t="s">
+        <v>1789</v>
       </c>
       <c r="E60" t="s">
         <v>329</v>
@@ -28606,8 +29477,8 @@
       <c r="C61" t="s">
         <v>342</v>
       </c>
-      <c r="D61" t="s">
-        <v>1482</v>
+      <c r="D61" s="17" t="s">
+        <v>1790</v>
       </c>
       <c r="E61" t="s">
         <v>343</v>
@@ -28653,8 +29524,8 @@
       <c r="C62" t="s">
         <v>350</v>
       </c>
-      <c r="D62" t="s">
-        <v>1483</v>
+      <c r="D62" s="17" t="s">
+        <v>1791</v>
       </c>
       <c r="E62" t="s">
         <v>351</v>
@@ -28700,8 +29571,8 @@
       <c r="C63" t="s">
         <v>353</v>
       </c>
-      <c r="D63" t="s">
-        <v>1484</v>
+      <c r="D63" s="17" t="s">
+        <v>1792</v>
       </c>
       <c r="E63" t="s">
         <v>354</v>
@@ -28747,8 +29618,8 @@
       <c r="C64" t="s">
         <v>356</v>
       </c>
-      <c r="D64" t="s">
-        <v>1485</v>
+      <c r="D64" s="17" t="s">
+        <v>1793</v>
       </c>
       <c r="E64" t="s">
         <v>357</v>
@@ -28794,8 +29665,8 @@
       <c r="C65" t="s">
         <v>360</v>
       </c>
-      <c r="D65" t="s">
-        <v>1486</v>
+      <c r="D65" s="17" t="s">
+        <v>1794</v>
       </c>
       <c r="E65" t="s">
         <v>361</v>
@@ -28841,8 +29712,8 @@
       <c r="C66" t="s">
         <v>366</v>
       </c>
-      <c r="D66" t="s">
-        <v>1487</v>
+      <c r="D66" s="17" t="s">
+        <v>1795</v>
       </c>
       <c r="E66" t="s">
         <v>367</v>
@@ -28888,8 +29759,8 @@
       <c r="C67" t="s">
         <v>369</v>
       </c>
-      <c r="D67" t="s">
-        <v>1488</v>
+      <c r="D67" s="17" t="s">
+        <v>1796</v>
       </c>
       <c r="E67" t="s">
         <v>370</v>
@@ -28935,8 +29806,8 @@
       <c r="C68" t="s">
         <v>372</v>
       </c>
-      <c r="D68" t="s">
-        <v>1489</v>
+      <c r="D68" s="17" t="s">
+        <v>1797</v>
       </c>
       <c r="E68" t="s">
         <v>373</v>
@@ -28982,8 +29853,8 @@
       <c r="C69" t="s">
         <v>375</v>
       </c>
-      <c r="D69" t="s">
-        <v>1490</v>
+      <c r="D69" s="17" t="s">
+        <v>1798</v>
       </c>
       <c r="E69" t="s">
         <v>376</v>
@@ -29029,8 +29900,8 @@
       <c r="C70" t="s">
         <v>378</v>
       </c>
-      <c r="D70" t="s">
-        <v>1491</v>
+      <c r="D70" s="17" t="s">
+        <v>1799</v>
       </c>
       <c r="E70" t="s">
         <v>379</v>
@@ -29076,8 +29947,8 @@
       <c r="C71" t="s">
         <v>381</v>
       </c>
-      <c r="D71" t="s">
-        <v>1492</v>
+      <c r="D71" s="17" t="s">
+        <v>1800</v>
       </c>
       <c r="E71" t="s">
         <v>382</v>
@@ -29123,8 +29994,8 @@
       <c r="C72" t="s">
         <v>384</v>
       </c>
-      <c r="D72" t="s">
-        <v>1493</v>
+      <c r="D72" s="17" t="s">
+        <v>1801</v>
       </c>
       <c r="E72" t="s">
         <v>385</v>
@@ -29170,8 +30041,8 @@
       <c r="C73" t="s">
         <v>388</v>
       </c>
-      <c r="D73" t="s">
-        <v>1494</v>
+      <c r="D73" s="17" t="s">
+        <v>1802</v>
       </c>
       <c r="E73" t="s">
         <v>389</v>
@@ -29217,8 +30088,8 @@
       <c r="C74" t="s">
         <v>391</v>
       </c>
-      <c r="D74" t="s">
-        <v>1495</v>
+      <c r="D74" s="17" t="s">
+        <v>1803</v>
       </c>
       <c r="E74" t="s">
         <v>392</v>
@@ -29264,8 +30135,8 @@
       <c r="C75" t="s">
         <v>394</v>
       </c>
-      <c r="D75" t="s">
-        <v>1496</v>
+      <c r="D75" s="17" t="s">
+        <v>1804</v>
       </c>
       <c r="E75" t="s">
         <v>395</v>
@@ -29311,8 +30182,8 @@
       <c r="C76" t="s">
         <v>397</v>
       </c>
-      <c r="D76" t="s">
-        <v>1497</v>
+      <c r="D76" s="17" t="s">
+        <v>1805</v>
       </c>
       <c r="E76" t="s">
         <v>398</v>
@@ -29358,8 +30229,8 @@
       <c r="C77" t="s">
         <v>401</v>
       </c>
-      <c r="D77" t="s">
-        <v>1498</v>
+      <c r="D77" s="17" t="s">
+        <v>1806</v>
       </c>
       <c r="E77" t="s">
         <v>402</v>
@@ -29405,8 +30276,8 @@
       <c r="C78" t="s">
         <v>404</v>
       </c>
-      <c r="D78" t="s">
-        <v>1499</v>
+      <c r="D78" s="17" t="s">
+        <v>1807</v>
       </c>
       <c r="E78" t="s">
         <v>405</v>
@@ -29452,8 +30323,8 @@
       <c r="C79" t="s">
         <v>408</v>
       </c>
-      <c r="D79" t="s">
-        <v>1500</v>
+      <c r="D79" s="17" t="s">
+        <v>1808</v>
       </c>
       <c r="E79" t="s">
         <v>409</v>
@@ -29499,8 +30370,8 @@
       <c r="C80" t="s">
         <v>411</v>
       </c>
-      <c r="D80" t="s">
-        <v>1501</v>
+      <c r="D80" s="17" t="s">
+        <v>1809</v>
       </c>
       <c r="E80" t="s">
         <v>412</v>
@@ -29546,8 +30417,8 @@
       <c r="C81" t="s">
         <v>415</v>
       </c>
-      <c r="D81" t="s">
-        <v>1502</v>
+      <c r="D81" s="17" t="s">
+        <v>1810</v>
       </c>
       <c r="E81" t="s">
         <v>416</v>
@@ -29593,8 +30464,8 @@
       <c r="C82" t="s">
         <v>422</v>
       </c>
-      <c r="D82" t="s">
-        <v>1503</v>
+      <c r="D82" s="17" t="s">
+        <v>1811</v>
       </c>
       <c r="E82" t="s">
         <v>423</v>
@@ -29640,8 +30511,8 @@
       <c r="C83" t="s">
         <v>431</v>
       </c>
-      <c r="D83" t="s">
-        <v>1504</v>
+      <c r="D83" s="17" t="s">
+        <v>1812</v>
       </c>
       <c r="E83" t="s">
         <v>432</v>
@@ -29687,8 +30558,8 @@
       <c r="C84" t="s">
         <v>434</v>
       </c>
-      <c r="D84" t="s">
-        <v>1505</v>
+      <c r="D84" s="17" t="s">
+        <v>1813</v>
       </c>
       <c r="E84" t="s">
         <v>435</v>
@@ -29734,8 +30605,8 @@
       <c r="C85" t="s">
         <v>437</v>
       </c>
-      <c r="D85" t="s">
-        <v>1506</v>
+      <c r="D85" s="17" t="s">
+        <v>1814</v>
       </c>
       <c r="E85" t="s">
         <v>438</v>
@@ -29781,8 +30652,8 @@
       <c r="C86" t="s">
         <v>440</v>
       </c>
-      <c r="D86" t="s">
-        <v>1507</v>
+      <c r="D86" s="17" t="s">
+        <v>1815</v>
       </c>
       <c r="E86" t="s">
         <v>441</v>
@@ -29828,8 +30699,8 @@
       <c r="C87" t="s">
         <v>443</v>
       </c>
-      <c r="D87" t="s">
-        <v>1508</v>
+      <c r="D87" s="17" t="s">
+        <v>1816</v>
       </c>
       <c r="E87" t="s">
         <v>444</v>
@@ -29875,8 +30746,8 @@
       <c r="C88" t="s">
         <v>446</v>
       </c>
-      <c r="D88" t="s">
-        <v>1509</v>
+      <c r="D88" s="17" t="s">
+        <v>1817</v>
       </c>
       <c r="E88" t="s">
         <v>447</v>
@@ -29922,8 +30793,8 @@
       <c r="C89" t="s">
         <v>449</v>
       </c>
-      <c r="D89" t="s">
-        <v>1510</v>
+      <c r="D89" s="17" t="s">
+        <v>1818</v>
       </c>
       <c r="E89" t="s">
         <v>450</v>
@@ -29969,8 +30840,8 @@
       <c r="C90" t="s">
         <v>456</v>
       </c>
-      <c r="D90" t="s">
-        <v>1511</v>
+      <c r="D90" s="17" t="s">
+        <v>1819</v>
       </c>
       <c r="E90" t="s">
         <v>457</v>
@@ -30016,8 +30887,8 @@
       <c r="C91" t="s">
         <v>461</v>
       </c>
-      <c r="D91" t="s">
-        <v>1512</v>
+      <c r="D91" s="17" t="s">
+        <v>1820</v>
       </c>
       <c r="E91" t="s">
         <v>462</v>
@@ -30060,7 +30931,7 @@
       <c r="C92" t="s">
         <v>466</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="17" t="s">
         <v>466</v>
       </c>
       <c r="E92" t="s">
@@ -30107,7 +30978,7 @@
       <c r="C93" t="s">
         <v>471</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="17" t="s">
         <v>471</v>
       </c>
       <c r="E93" t="s">
@@ -30154,7 +31025,7 @@
       <c r="C94" t="s">
         <v>473</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="17" t="s">
         <v>473</v>
       </c>
       <c r="E94" t="s">
@@ -30201,8 +31072,8 @@
       <c r="C95" t="s">
         <v>475</v>
       </c>
-      <c r="D95" t="s">
-        <v>1513</v>
+      <c r="D95" s="17" t="s">
+        <v>1821</v>
       </c>
       <c r="E95" t="s">
         <v>476</v>
@@ -30245,8 +31116,8 @@
       <c r="C96" t="s">
         <v>477</v>
       </c>
-      <c r="D96" t="s">
-        <v>1514</v>
+      <c r="D96" s="17" t="s">
+        <v>1822</v>
       </c>
       <c r="E96" t="s">
         <v>478</v>
@@ -30289,8 +31160,8 @@
       <c r="C97" t="s">
         <v>479</v>
       </c>
-      <c r="D97" t="s">
-        <v>1515</v>
+      <c r="D97" s="17" t="s">
+        <v>1823</v>
       </c>
       <c r="E97" t="s">
         <v>480</v>
@@ -30333,7 +31204,7 @@
       <c r="C98" t="s">
         <v>481</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="17" t="s">
         <v>1516</v>
       </c>
       <c r="E98" t="s">
@@ -30421,8 +31292,8 @@
       <c r="C100" t="s">
         <v>486</v>
       </c>
-      <c r="D100" t="s">
-        <v>1518</v>
+      <c r="D100" s="17" t="s">
+        <v>1824</v>
       </c>
       <c r="E100" t="s">
         <v>487</v>
@@ -30465,7 +31336,7 @@
       <c r="C101" t="s">
         <v>488</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="17" t="s">
         <v>1519</v>
       </c>
       <c r="E101" t="s">
@@ -30509,8 +31380,8 @@
       <c r="C102" t="s">
         <v>490</v>
       </c>
-      <c r="D102" t="s">
-        <v>1520</v>
+      <c r="D102" s="17" t="s">
+        <v>1825</v>
       </c>
       <c r="E102" t="s">
         <v>491</v>
@@ -30553,8 +31424,8 @@
       <c r="C103" t="s">
         <v>492</v>
       </c>
-      <c r="D103" t="s">
-        <v>1521</v>
+      <c r="D103" s="17" t="s">
+        <v>1826</v>
       </c>
       <c r="E103" t="s">
         <v>493</v>
@@ -30597,8 +31468,8 @@
       <c r="C104" t="s">
         <v>494</v>
       </c>
-      <c r="D104" t="s">
-        <v>1522</v>
+      <c r="D104" s="17" t="s">
+        <v>1827</v>
       </c>
       <c r="E104" t="s">
         <v>495</v>
@@ -30641,7 +31512,7 @@
       <c r="C105" t="s">
         <v>496</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="17" t="s">
         <v>1523</v>
       </c>
       <c r="E105" t="s">
@@ -30729,8 +31600,8 @@
       <c r="C107" t="s">
         <v>500</v>
       </c>
-      <c r="D107" t="s">
-        <v>1525</v>
+      <c r="D107" s="17" t="s">
+        <v>1828</v>
       </c>
       <c r="E107" t="s">
         <v>501</v>
@@ -30773,8 +31644,8 @@
       <c r="C108" t="s">
         <v>502</v>
       </c>
-      <c r="D108" t="s">
-        <v>1526</v>
+      <c r="D108" s="17" t="s">
+        <v>1829</v>
       </c>
       <c r="E108" t="s">
         <v>503</v>
@@ -30817,8 +31688,8 @@
       <c r="C109" t="s">
         <v>504</v>
       </c>
-      <c r="D109" t="s">
-        <v>1527</v>
+      <c r="D109" s="17" t="s">
+        <v>1830</v>
       </c>
       <c r="E109" t="s">
         <v>505</v>
@@ -30861,8 +31732,8 @@
       <c r="C110" t="s">
         <v>506</v>
       </c>
-      <c r="D110" t="s">
-        <v>1528</v>
+      <c r="D110" s="17" t="s">
+        <v>1831</v>
       </c>
       <c r="E110" t="s">
         <v>507</v>
@@ -30905,8 +31776,8 @@
       <c r="C111" t="s">
         <v>510</v>
       </c>
-      <c r="D111" t="s">
-        <v>1529</v>
+      <c r="D111" s="17" t="s">
+        <v>1832</v>
       </c>
       <c r="E111" t="s">
         <v>511</v>
@@ -30949,7 +31820,7 @@
       <c r="C112" t="s">
         <v>512</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="17" t="s">
         <v>512</v>
       </c>
       <c r="E112" t="s">
@@ -30996,7 +31867,7 @@
       <c r="C113" t="s">
         <v>514</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="17" t="s">
         <v>514</v>
       </c>
       <c r="E113" t="s">
@@ -31043,7 +31914,7 @@
       <c r="C114" t="s">
         <v>516</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="17" t="s">
         <v>516</v>
       </c>
       <c r="E114" t="s">
@@ -31090,7 +31961,7 @@
       <c r="C115" t="s">
         <v>518</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="17" t="s">
         <v>518</v>
       </c>
       <c r="E115" t="s">
@@ -31137,7 +32008,7 @@
       <c r="C116" t="s">
         <v>520</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="17" t="s">
         <v>520</v>
       </c>
       <c r="E116" t="s">
@@ -31184,7 +32055,7 @@
       <c r="C117" t="s">
         <v>522</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="17" t="s">
         <v>522</v>
       </c>
       <c r="E117" t="s">
@@ -31231,8 +32102,8 @@
       <c r="C118" t="s">
         <v>524</v>
       </c>
-      <c r="D118" t="s">
-        <v>1530</v>
+      <c r="D118" s="17" t="s">
+        <v>1833</v>
       </c>
       <c r="E118" t="s">
         <v>525</v>
@@ -31275,8 +32146,8 @@
       <c r="C119" t="s">
         <v>528</v>
       </c>
-      <c r="D119" t="s">
-        <v>1531</v>
+      <c r="D119" s="17" t="s">
+        <v>1834</v>
       </c>
       <c r="E119" t="s">
         <v>529</v>
@@ -31319,7 +32190,7 @@
       <c r="C120" t="s">
         <v>530</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="17" t="s">
         <v>530</v>
       </c>
       <c r="E120" t="s">
@@ -31366,7 +32237,7 @@
       <c r="C121" t="s">
         <v>532</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="17" t="s">
         <v>532</v>
       </c>
       <c r="E121" t="s">
@@ -31413,7 +32284,7 @@
       <c r="C122" t="s">
         <v>534</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="17" t="s">
         <v>534</v>
       </c>
       <c r="E122" t="s">
@@ -31460,7 +32331,7 @@
       <c r="C123" t="s">
         <v>536</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="17" t="s">
         <v>536</v>
       </c>
       <c r="E123" t="s">
@@ -31507,7 +32378,7 @@
       <c r="C124" t="s">
         <v>538</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="17" t="s">
         <v>538</v>
       </c>
       <c r="E124" t="s">
@@ -31554,7 +32425,7 @@
       <c r="C125" t="s">
         <v>540</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="17" t="s">
         <v>540</v>
       </c>
       <c r="E125" t="s">
@@ -31601,8 +32472,8 @@
       <c r="C126" t="s">
         <v>542</v>
       </c>
-      <c r="D126" t="s">
-        <v>1532</v>
+      <c r="D126" s="17" t="s">
+        <v>1835</v>
       </c>
       <c r="E126" t="s">
         <v>543</v>
@@ -31645,8 +32516,8 @@
       <c r="C127" t="s">
         <v>546</v>
       </c>
-      <c r="D127" t="s">
-        <v>1533</v>
+      <c r="D127" s="17" t="s">
+        <v>1836</v>
       </c>
       <c r="E127" t="s">
         <v>547</v>
@@ -31689,8 +32560,8 @@
       <c r="C128" t="s">
         <v>548</v>
       </c>
-      <c r="D128" t="s">
-        <v>1534</v>
+      <c r="D128" s="17" t="s">
+        <v>1837</v>
       </c>
       <c r="E128" t="s">
         <v>549</v>
@@ -31733,8 +32604,8 @@
       <c r="C129" t="s">
         <v>550</v>
       </c>
-      <c r="D129" t="s">
-        <v>1535</v>
+      <c r="D129" s="17" t="s">
+        <v>1838</v>
       </c>
       <c r="E129" t="s">
         <v>551</v>
@@ -31777,8 +32648,8 @@
       <c r="C130" t="s">
         <v>552</v>
       </c>
-      <c r="D130" t="s">
-        <v>1536</v>
+      <c r="D130" s="17" t="s">
+        <v>1839</v>
       </c>
       <c r="E130" t="s">
         <v>553</v>
@@ -31821,8 +32692,8 @@
       <c r="C131" t="s">
         <v>554</v>
       </c>
-      <c r="D131" t="s">
-        <v>1537</v>
+      <c r="D131" s="17" t="s">
+        <v>1840</v>
       </c>
       <c r="E131" t="s">
         <v>555</v>
@@ -31865,7 +32736,7 @@
       <c r="C132" t="s">
         <v>557</v>
       </c>
-      <c r="D132" t="s">
+      <c r="D132" s="17" t="s">
         <v>557</v>
       </c>
       <c r="E132" t="s">
@@ -31912,7 +32783,7 @@
       <c r="C133" t="s">
         <v>563</v>
       </c>
-      <c r="D133" t="s">
+      <c r="D133" s="17" t="s">
         <v>563</v>
       </c>
       <c r="E133" t="s">
@@ -31956,8 +32827,8 @@
       <c r="C134" t="s">
         <v>565</v>
       </c>
-      <c r="D134" t="s">
-        <v>1538</v>
+      <c r="D134" s="17" t="s">
+        <v>1841</v>
       </c>
       <c r="E134" t="s">
         <v>566</v>
@@ -32000,8 +32871,8 @@
       <c r="C135" t="s">
         <v>567</v>
       </c>
-      <c r="D135" t="s">
-        <v>1539</v>
+      <c r="D135" s="17" t="s">
+        <v>1842</v>
       </c>
       <c r="E135" t="s">
         <v>568</v>
@@ -32044,8 +32915,8 @@
       <c r="C136" t="s">
         <v>569</v>
       </c>
-      <c r="D136" t="s">
-        <v>1540</v>
+      <c r="D136" s="17" t="s">
+        <v>1843</v>
       </c>
       <c r="E136" t="s">
         <v>570</v>
@@ -32088,7 +32959,7 @@
       <c r="C137" t="s">
         <v>572</v>
       </c>
-      <c r="D137" t="s">
+      <c r="D137" s="17" t="s">
         <v>572</v>
       </c>
       <c r="E137" t="s">
@@ -32135,8 +33006,8 @@
       <c r="C138" t="s">
         <v>574</v>
       </c>
-      <c r="D138" t="s">
-        <v>1541</v>
+      <c r="D138" s="17" t="s">
+        <v>1844</v>
       </c>
       <c r="E138" t="s">
         <v>575</v>
@@ -32179,8 +33050,8 @@
       <c r="C139" t="s">
         <v>576</v>
       </c>
-      <c r="D139" t="s">
-        <v>1542</v>
+      <c r="D139" s="17" t="s">
+        <v>1845</v>
       </c>
       <c r="E139" t="s">
         <v>577</v>
@@ -32223,7 +33094,7 @@
       <c r="C140" t="s">
         <v>578</v>
       </c>
-      <c r="D140" t="s">
+      <c r="D140" s="17" t="s">
         <v>578</v>
       </c>
       <c r="E140" t="s">
@@ -32267,7 +33138,7 @@
       <c r="C141" t="s">
         <v>581</v>
       </c>
-      <c r="D141" t="s">
+      <c r="D141" s="17" t="s">
         <v>581</v>
       </c>
       <c r="E141" t="s">
@@ -32311,7 +33182,7 @@
       <c r="C142" t="s">
         <v>583</v>
       </c>
-      <c r="D142" t="s">
+      <c r="D142" s="17" t="s">
         <v>583</v>
       </c>
       <c r="E142" t="s">
@@ -32358,7 +33229,7 @@
       <c r="C143" t="s">
         <v>585</v>
       </c>
-      <c r="D143" t="s">
+      <c r="D143" s="17" t="s">
         <v>585</v>
       </c>
       <c r="E143" t="s">
@@ -32405,8 +33276,8 @@
       <c r="C144" t="s">
         <v>587</v>
       </c>
-      <c r="D144" t="s">
-        <v>1543</v>
+      <c r="D144" s="17" t="s">
+        <v>1846</v>
       </c>
       <c r="E144" t="s">
         <v>588</v>
@@ -32449,8 +33320,8 @@
       <c r="C145" t="s">
         <v>589</v>
       </c>
-      <c r="D145" t="s">
-        <v>1544</v>
+      <c r="D145" s="17" t="s">
+        <v>1847</v>
       </c>
       <c r="E145" t="s">
         <v>590</v>
@@ -32493,8 +33364,8 @@
       <c r="C146" t="s">
         <v>591</v>
       </c>
-      <c r="D146" t="s">
-        <v>591</v>
+      <c r="D146" s="17" t="s">
+        <v>1848</v>
       </c>
       <c r="E146" t="s">
         <v>592</v>
@@ -32540,8 +33411,8 @@
       <c r="C147" t="s">
         <v>593</v>
       </c>
-      <c r="D147" t="s">
-        <v>593</v>
+      <c r="D147" s="17" t="s">
+        <v>1849</v>
       </c>
       <c r="E147" t="s">
         <v>594</v>
@@ -32587,7 +33458,7 @@
       <c r="C148" t="s">
         <v>595</v>
       </c>
-      <c r="D148" t="s">
+      <c r="D148" s="17" t="s">
         <v>595</v>
       </c>
       <c r="E148" t="s">
@@ -32631,7 +33502,7 @@
       <c r="C149" t="s">
         <v>597</v>
       </c>
-      <c r="D149" t="s">
+      <c r="D149" s="17" t="s">
         <v>597</v>
       </c>
       <c r="E149" t="s">
@@ -32675,7 +33546,7 @@
       <c r="C150" t="s">
         <v>599</v>
       </c>
-      <c r="D150" t="s">
+      <c r="D150" s="17" t="s">
         <v>599</v>
       </c>
       <c r="E150" t="s">
@@ -32719,7 +33590,7 @@
       <c r="C151" t="s">
         <v>601</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="17" t="s">
         <v>601</v>
       </c>
       <c r="E151" t="s">
@@ -32763,8 +33634,8 @@
       <c r="C152" t="s">
         <v>603</v>
       </c>
-      <c r="D152" t="s">
-        <v>603</v>
+      <c r="D152" s="17" t="s">
+        <v>1850</v>
       </c>
       <c r="E152" t="s">
         <v>604</v>
@@ -32807,7 +33678,7 @@
       <c r="C153" t="s">
         <v>605</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D153" s="17" t="s">
         <v>1545</v>
       </c>
       <c r="E153" t="s">
@@ -32854,7 +33725,7 @@
       <c r="C154" t="s">
         <v>607</v>
       </c>
-      <c r="D154" t="s">
+      <c r="D154" s="17" t="s">
         <v>607</v>
       </c>
       <c r="E154" t="s">
@@ -32901,7 +33772,7 @@
       <c r="C155" t="s">
         <v>609</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D155" s="17" t="s">
         <v>609</v>
       </c>
       <c r="E155" t="s">
@@ -32948,7 +33819,7 @@
       <c r="C156" t="s">
         <v>611</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D156" s="17" t="s">
         <v>611</v>
       </c>
       <c r="E156" t="s">
@@ -32995,8 +33866,8 @@
       <c r="C157" t="s">
         <v>613</v>
       </c>
-      <c r="D157" t="s">
-        <v>613</v>
+      <c r="D157" s="17" t="s">
+        <v>1851</v>
       </c>
       <c r="E157" t="s">
         <v>614</v>
@@ -33042,8 +33913,8 @@
       <c r="C158" t="s">
         <v>615</v>
       </c>
-      <c r="D158" t="s">
-        <v>1546</v>
+      <c r="D158" s="17" t="s">
+        <v>1852</v>
       </c>
       <c r="E158" t="s">
         <v>616</v>
@@ -33086,8 +33957,8 @@
       <c r="C159" t="s">
         <v>621</v>
       </c>
-      <c r="D159" t="s">
-        <v>1547</v>
+      <c r="D159" s="17" t="s">
+        <v>1853</v>
       </c>
       <c r="E159" t="s">
         <v>622</v>
@@ -33130,8 +34001,8 @@
       <c r="C160" t="s">
         <v>624</v>
       </c>
-      <c r="D160" t="s">
-        <v>1548</v>
+      <c r="D160" s="17" t="s">
+        <v>1854</v>
       </c>
       <c r="E160" t="s">
         <v>625</v>
@@ -33174,8 +34045,8 @@
       <c r="C161" t="s">
         <v>627</v>
       </c>
-      <c r="D161" t="s">
-        <v>1549</v>
+      <c r="D161" s="17" t="s">
+        <v>1855</v>
       </c>
       <c r="E161" t="s">
         <v>628</v>
@@ -33218,8 +34089,8 @@
       <c r="C162" t="s">
         <v>629</v>
       </c>
-      <c r="D162" t="s">
-        <v>1550</v>
+      <c r="D162" s="17" t="s">
+        <v>1856</v>
       </c>
       <c r="E162" t="s">
         <v>630</v>
@@ -33262,8 +34133,8 @@
       <c r="C163" t="s">
         <v>631</v>
       </c>
-      <c r="D163" t="s">
-        <v>1551</v>
+      <c r="D163" s="17" t="s">
+        <v>1857</v>
       </c>
       <c r="E163" t="s">
         <v>632</v>
@@ -33306,8 +34177,8 @@
       <c r="C164" t="s">
         <v>633</v>
       </c>
-      <c r="D164" t="s">
-        <v>1552</v>
+      <c r="D164" s="17" t="s">
+        <v>1858</v>
       </c>
       <c r="E164" t="s">
         <v>634</v>
@@ -33350,8 +34221,8 @@
       <c r="C165" t="s">
         <v>637</v>
       </c>
-      <c r="D165" t="s">
-        <v>1553</v>
+      <c r="D165" s="17" t="s">
+        <v>1859</v>
       </c>
       <c r="E165" t="s">
         <v>638</v>
@@ -33397,8 +34268,8 @@
       <c r="C166" t="s">
         <v>642</v>
       </c>
-      <c r="D166" t="s">
-        <v>1554</v>
+      <c r="D166" s="17" t="s">
+        <v>1860</v>
       </c>
       <c r="E166" t="s">
         <v>643</v>
@@ -33444,8 +34315,8 @@
       <c r="C167" t="s">
         <v>644</v>
       </c>
-      <c r="D167" t="s">
-        <v>1555</v>
+      <c r="D167" s="17" t="s">
+        <v>1861</v>
       </c>
       <c r="E167" t="s">
         <v>645</v>
@@ -33491,7 +34362,7 @@
       <c r="C168" t="s">
         <v>646</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D168" s="17" t="s">
         <v>1556</v>
       </c>
       <c r="E168" t="s">
@@ -33538,7 +34409,7 @@
       <c r="C169" t="s">
         <v>649</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D169" s="17" t="s">
         <v>1557</v>
       </c>
       <c r="E169" t="s">
@@ -33585,7 +34456,7 @@
       <c r="C170" t="s">
         <v>651</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D170" s="17" t="s">
         <v>1558</v>
       </c>
       <c r="E170" t="s">
@@ -33632,7 +34503,7 @@
       <c r="C171" t="s">
         <v>653</v>
       </c>
-      <c r="D171" t="s">
+      <c r="D171" s="17" t="s">
         <v>1559</v>
       </c>
       <c r="E171" t="s">
@@ -33679,8 +34550,8 @@
       <c r="C172" t="s">
         <v>656</v>
       </c>
-      <c r="D172" t="s">
-        <v>1560</v>
+      <c r="D172" s="17" t="s">
+        <v>1862</v>
       </c>
       <c r="E172" t="s">
         <v>657</v>
@@ -33723,8 +34594,8 @@
       <c r="C173" t="s">
         <v>662</v>
       </c>
-      <c r="D173" t="s">
-        <v>1561</v>
+      <c r="D173" s="17" t="s">
+        <v>1863</v>
       </c>
       <c r="E173" t="s">
         <v>663</v>
@@ -33767,8 +34638,8 @@
       <c r="C174" t="s">
         <v>666</v>
       </c>
-      <c r="D174" t="s">
-        <v>1562</v>
+      <c r="D174" s="17" t="s">
+        <v>1864</v>
       </c>
       <c r="E174" t="s">
         <v>667</v>
@@ -33811,8 +34682,8 @@
       <c r="C175" t="s">
         <v>671</v>
       </c>
-      <c r="D175" t="s">
-        <v>1563</v>
+      <c r="D175" s="17" t="s">
+        <v>1865</v>
       </c>
       <c r="E175" t="s">
         <v>672</v>
@@ -33855,8 +34726,8 @@
       <c r="C176" t="s">
         <v>673</v>
       </c>
-      <c r="D176" t="s">
-        <v>1564</v>
+      <c r="D176" s="17" t="s">
+        <v>1866</v>
       </c>
       <c r="E176" t="s">
         <v>674</v>
@@ -33899,8 +34770,8 @@
       <c r="C177" t="s">
         <v>676</v>
       </c>
-      <c r="D177" t="s">
-        <v>1565</v>
+      <c r="D177" s="17" t="s">
+        <v>1867</v>
       </c>
       <c r="E177" t="s">
         <v>677</v>
@@ -33943,8 +34814,8 @@
       <c r="C178" t="s">
         <v>679</v>
       </c>
-      <c r="D178" t="s">
-        <v>1566</v>
+      <c r="D178" s="17" t="s">
+        <v>1868</v>
       </c>
       <c r="E178" t="s">
         <v>680</v>
@@ -33987,8 +34858,8 @@
       <c r="C179" t="s">
         <v>684</v>
       </c>
-      <c r="D179" t="s">
-        <v>1567</v>
+      <c r="D179" s="17" t="s">
+        <v>1869</v>
       </c>
       <c r="E179" t="s">
         <v>685</v>
@@ -34034,8 +34905,8 @@
       <c r="C180" t="s">
         <v>688</v>
       </c>
-      <c r="D180" t="s">
-        <v>1568</v>
+      <c r="D180" s="17" t="s">
+        <v>1870</v>
       </c>
       <c r="E180" t="s">
         <v>689</v>
@@ -34078,8 +34949,8 @@
       <c r="C181" t="s">
         <v>692</v>
       </c>
-      <c r="D181" t="s">
-        <v>1569</v>
+      <c r="D181" s="17" t="s">
+        <v>1871</v>
       </c>
       <c r="E181" t="s">
         <v>693</v>
@@ -34122,8 +34993,8 @@
       <c r="C182" t="s">
         <v>696</v>
       </c>
-      <c r="D182" t="s">
-        <v>1570</v>
+      <c r="D182" s="17" t="s">
+        <v>1872</v>
       </c>
       <c r="E182" t="s">
         <v>697</v>
@@ -34166,8 +35037,8 @@
       <c r="C183" t="s">
         <v>700</v>
       </c>
-      <c r="D183" t="s">
-        <v>1571</v>
+      <c r="D183" s="17" t="s">
+        <v>1873</v>
       </c>
       <c r="E183" t="s">
         <v>701</v>
@@ -34210,8 +35081,8 @@
       <c r="C184" t="s">
         <v>704</v>
       </c>
-      <c r="D184" t="s">
-        <v>1572</v>
+      <c r="D184" s="17" t="s">
+        <v>1874</v>
       </c>
       <c r="E184" t="s">
         <v>705</v>
@@ -34254,8 +35125,8 @@
       <c r="C185" t="s">
         <v>709</v>
       </c>
-      <c r="D185" t="s">
-        <v>709</v>
+      <c r="D185" s="17" t="s">
+        <v>1875</v>
       </c>
       <c r="E185" t="s">
         <v>710</v>
@@ -34295,8 +35166,8 @@
       <c r="C186" t="s">
         <v>715</v>
       </c>
-      <c r="D186" t="s">
-        <v>715</v>
+      <c r="D186" s="17" t="s">
+        <v>1876</v>
       </c>
       <c r="E186" t="s">
         <v>716</v>
@@ -34336,8 +35207,8 @@
       <c r="C187" t="s">
         <v>717</v>
       </c>
-      <c r="D187" t="s">
-        <v>717</v>
+      <c r="D187" s="17" t="s">
+        <v>1877</v>
       </c>
       <c r="E187" t="s">
         <v>718</v>
@@ -34377,8 +35248,8 @@
       <c r="C188" t="s">
         <v>720</v>
       </c>
-      <c r="D188" t="s">
-        <v>720</v>
+      <c r="D188" s="17" t="s">
+        <v>1878</v>
       </c>
       <c r="E188" t="s">
         <v>721</v>
@@ -34418,8 +35289,8 @@
       <c r="C189" t="s">
         <v>722</v>
       </c>
-      <c r="D189" t="s">
-        <v>1573</v>
+      <c r="D189" s="17" t="s">
+        <v>1879</v>
       </c>
       <c r="E189" t="s">
         <v>723</v>
@@ -34459,8 +35330,8 @@
       <c r="C190" t="s">
         <v>727</v>
       </c>
-      <c r="D190" t="s">
-        <v>1574</v>
+      <c r="D190" s="17" t="s">
+        <v>1880</v>
       </c>
       <c r="E190" t="s">
         <v>728</v>
@@ -34937,8 +35808,8 @@
       <c r="C201" t="s">
         <v>779</v>
       </c>
-      <c r="D201" t="s">
-        <v>1583</v>
+      <c r="D201" s="17" t="s">
+        <v>779</v>
       </c>
       <c r="E201" t="s">
         <v>780</v>
@@ -34978,8 +35849,8 @@
       <c r="C202" t="s">
         <v>784</v>
       </c>
-      <c r="D202" t="s">
-        <v>724</v>
+      <c r="D202" s="17" t="s">
+        <v>1881</v>
       </c>
       <c r="E202" t="s">
         <v>785</v>
@@ -35019,8 +35890,8 @@
       <c r="C203" t="s">
         <v>787</v>
       </c>
-      <c r="D203" t="s">
-        <v>787</v>
+      <c r="D203" s="17" t="s">
+        <v>1882</v>
       </c>
       <c r="E203" t="s">
         <v>788</v>
@@ -35060,8 +35931,8 @@
       <c r="C204" t="s">
         <v>790</v>
       </c>
-      <c r="D204" t="s">
-        <v>790</v>
+      <c r="D204" s="17" t="s">
+        <v>1883</v>
       </c>
       <c r="E204" t="s">
         <v>791</v>
@@ -35101,8 +35972,8 @@
       <c r="C205" t="s">
         <v>794</v>
       </c>
-      <c r="D205" t="s">
-        <v>794</v>
+      <c r="D205" s="17" t="s">
+        <v>1884</v>
       </c>
       <c r="E205" t="s">
         <v>795</v>
@@ -35142,8 +36013,8 @@
       <c r="C206" t="s">
         <v>796</v>
       </c>
-      <c r="D206" t="s">
-        <v>796</v>
+      <c r="D206" s="17" t="s">
+        <v>1885</v>
       </c>
       <c r="E206" t="s">
         <v>797</v>
@@ -35183,8 +36054,8 @@
       <c r="C207" t="s">
         <v>798</v>
       </c>
-      <c r="D207" t="s">
-        <v>1584</v>
+      <c r="D207" s="17" t="s">
+        <v>1886</v>
       </c>
       <c r="E207" t="s">
         <v>799</v>
@@ -35227,8 +36098,8 @@
       <c r="C208" t="s">
         <v>804</v>
       </c>
-      <c r="D208" t="s">
-        <v>1585</v>
+      <c r="D208" s="17" t="s">
+        <v>1887</v>
       </c>
       <c r="E208" t="s">
         <v>805</v>
@@ -35271,8 +36142,8 @@
       <c r="C209" t="s">
         <v>806</v>
       </c>
-      <c r="D209" t="s">
-        <v>1586</v>
+      <c r="D209" s="17" t="s">
+        <v>1888</v>
       </c>
       <c r="E209" t="s">
         <v>807</v>
@@ -35315,8 +36186,8 @@
       <c r="C210" t="s">
         <v>808</v>
       </c>
-      <c r="D210" t="s">
-        <v>1587</v>
+      <c r="D210" s="17" t="s">
+        <v>1889</v>
       </c>
       <c r="E210" t="s">
         <v>809</v>
@@ -35359,8 +36230,8 @@
       <c r="C211" t="s">
         <v>810</v>
       </c>
-      <c r="D211" t="s">
-        <v>1588</v>
+      <c r="D211" s="17" t="s">
+        <v>1890</v>
       </c>
       <c r="E211" t="s">
         <v>811</v>
@@ -35403,7 +36274,7 @@
       <c r="C212" t="s">
         <v>812</v>
       </c>
-      <c r="D212" t="s">
+      <c r="D212" s="17" t="s">
         <v>1589</v>
       </c>
       <c r="E212" t="s">
@@ -35450,7 +36321,7 @@
       <c r="C213" t="s">
         <v>814</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="17" t="s">
         <v>1590</v>
       </c>
       <c r="E213" t="s">
@@ -35497,7 +36368,7 @@
       <c r="C214" t="s">
         <v>816</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="17" t="s">
         <v>1591</v>
       </c>
       <c r="E214" t="s">
@@ -35544,7 +36415,7 @@
       <c r="C215" t="s">
         <v>818</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="17" t="s">
         <v>1592</v>
       </c>
       <c r="E215" t="s">
@@ -35588,7 +36459,7 @@
       <c r="C216" t="s">
         <v>822</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="17" t="s">
         <v>1593</v>
       </c>
       <c r="E216" t="s">
@@ -35635,8 +36506,8 @@
       <c r="C217" t="s">
         <v>824</v>
       </c>
-      <c r="D217" t="s">
-        <v>1594</v>
+      <c r="D217" s="17" t="s">
+        <v>1891</v>
       </c>
       <c r="E217" t="s">
         <v>825</v>
@@ -35679,8 +36550,8 @@
       <c r="C218" t="s">
         <v>826</v>
       </c>
-      <c r="D218" t="s">
-        <v>1595</v>
+      <c r="D218" s="17" t="s">
+        <v>1892</v>
       </c>
       <c r="E218" t="s">
         <v>827</v>
@@ -35726,8 +36597,8 @@
       <c r="C219" t="s">
         <v>830</v>
       </c>
-      <c r="D219" t="s">
-        <v>1596</v>
+      <c r="D219" s="17" t="s">
+        <v>1893</v>
       </c>
       <c r="E219" t="s">
         <v>831</v>
@@ -35770,8 +36641,8 @@
       <c r="C220" t="s">
         <v>834</v>
       </c>
-      <c r="D220" t="s">
-        <v>1597</v>
+      <c r="D220" s="17" t="s">
+        <v>1894</v>
       </c>
       <c r="E220" t="s">
         <v>835</v>
@@ -35814,8 +36685,8 @@
       <c r="C221" t="s">
         <v>837</v>
       </c>
-      <c r="D221" t="s">
-        <v>1598</v>
+      <c r="D221" s="17" t="s">
+        <v>1895</v>
       </c>
       <c r="E221" t="s">
         <v>838</v>
@@ -35858,8 +36729,8 @@
       <c r="C222" t="s">
         <v>841</v>
       </c>
-      <c r="D222" t="s">
-        <v>1599</v>
+      <c r="D222" s="17" t="s">
+        <v>1896</v>
       </c>
       <c r="E222" t="s">
         <v>842</v>
@@ -35896,8 +36767,8 @@
       <c r="C223" t="s">
         <v>845</v>
       </c>
-      <c r="D223" t="s">
-        <v>1600</v>
+      <c r="D223" s="17" t="s">
+        <v>1897</v>
       </c>
       <c r="E223" t="s">
         <v>846</v>
@@ -35934,8 +36805,8 @@
       <c r="C224" t="s">
         <v>847</v>
       </c>
-      <c r="D224" t="s">
-        <v>1601</v>
+      <c r="D224" s="17" t="s">
+        <v>1898</v>
       </c>
       <c r="E224" t="s">
         <v>848</v>
@@ -35975,8 +36846,8 @@
       <c r="C225" t="s">
         <v>852</v>
       </c>
-      <c r="D225" t="s">
-        <v>1602</v>
+      <c r="D225" s="17" t="s">
+        <v>1899</v>
       </c>
       <c r="E225" t="s">
         <v>853</v>
@@ -36016,8 +36887,8 @@
       <c r="C226" t="s">
         <v>855</v>
       </c>
-      <c r="D226" t="s">
-        <v>1603</v>
+      <c r="D226" s="17" t="s">
+        <v>1900</v>
       </c>
       <c r="E226" t="s">
         <v>856</v>
@@ -36057,8 +36928,8 @@
       <c r="C227" t="s">
         <v>859</v>
       </c>
-      <c r="D227" t="s">
-        <v>1604</v>
+      <c r="D227" s="17" t="s">
+        <v>1901</v>
       </c>
       <c r="E227" t="s">
         <v>860</v>
@@ -36098,8 +36969,8 @@
       <c r="C228" t="s">
         <v>861</v>
       </c>
-      <c r="D228" t="s">
-        <v>1605</v>
+      <c r="D228" s="17" t="s">
+        <v>1902</v>
       </c>
       <c r="E228" t="s">
         <v>862</v>
@@ -36139,8 +37010,8 @@
       <c r="C229" t="s">
         <v>865</v>
       </c>
-      <c r="D229" t="s">
-        <v>1606</v>
+      <c r="D229" s="17" t="s">
+        <v>1903</v>
       </c>
       <c r="E229" t="s">
         <v>866</v>
@@ -36180,8 +37051,8 @@
       <c r="C230" t="s">
         <v>869</v>
       </c>
-      <c r="D230" t="s">
-        <v>1607</v>
+      <c r="D230" s="17" t="s">
+        <v>1904</v>
       </c>
       <c r="E230" t="s">
         <v>870</v>
@@ -36218,8 +37089,8 @@
       <c r="C231" t="s">
         <v>875</v>
       </c>
-      <c r="D231" t="s">
-        <v>1608</v>
+      <c r="D231" s="17" t="s">
+        <v>1905</v>
       </c>
       <c r="E231" t="s">
         <v>876</v>
@@ -36256,8 +37127,8 @@
       <c r="C232" t="s">
         <v>879</v>
       </c>
-      <c r="D232" t="s">
-        <v>1609</v>
+      <c r="D232" s="17" t="s">
+        <v>1906</v>
       </c>
       <c r="E232" t="s">
         <v>880</v>
@@ -36294,8 +37165,8 @@
       <c r="C233" t="s">
         <v>882</v>
       </c>
-      <c r="D233" t="s">
-        <v>1610</v>
+      <c r="D233" s="17" t="s">
+        <v>1907</v>
       </c>
       <c r="E233" t="s">
         <v>883</v>
@@ -36332,7 +37203,7 @@
       <c r="C234" t="s">
         <v>884</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D234" s="17" t="s">
         <v>884</v>
       </c>
       <c r="E234" t="s">
@@ -36370,8 +37241,8 @@
       <c r="C235" t="s">
         <v>889</v>
       </c>
-      <c r="D235" t="s">
-        <v>889</v>
+      <c r="D235" s="17" t="s">
+        <v>1908</v>
       </c>
       <c r="E235" t="s">
         <v>890</v>
@@ -36411,8 +37282,8 @@
       <c r="C236" t="s">
         <v>892</v>
       </c>
-      <c r="D236" t="s">
-        <v>892</v>
+      <c r="D236" s="17" t="s">
+        <v>1909</v>
       </c>
       <c r="E236" t="s">
         <v>893</v>
@@ -36452,8 +37323,8 @@
       <c r="C237" t="s">
         <v>894</v>
       </c>
-      <c r="D237" t="s">
-        <v>894</v>
+      <c r="D237" s="17" t="s">
+        <v>1910</v>
       </c>
       <c r="E237" t="s">
         <v>895</v>
@@ -36493,8 +37364,8 @@
       <c r="C238" t="s">
         <v>897</v>
       </c>
-      <c r="D238" t="s">
-        <v>1611</v>
+      <c r="D238" s="17" t="s">
+        <v>1911</v>
       </c>
       <c r="E238" t="s">
         <v>898</v>
@@ -36534,8 +37405,8 @@
       <c r="C239" t="s">
         <v>902</v>
       </c>
-      <c r="D239" t="s">
-        <v>1612</v>
+      <c r="D239" s="17" t="s">
+        <v>1912</v>
       </c>
       <c r="E239" t="s">
         <v>903</v>
@@ -36575,8 +37446,8 @@
       <c r="C240" t="s">
         <v>904</v>
       </c>
-      <c r="D240" t="s">
-        <v>1613</v>
+      <c r="D240" s="17" t="s">
+        <v>1913</v>
       </c>
       <c r="E240" t="s">
         <v>905</v>
@@ -36616,8 +37487,8 @@
       <c r="C241" t="s">
         <v>908</v>
       </c>
-      <c r="D241" t="s">
-        <v>1614</v>
+      <c r="D241" s="17" t="s">
+        <v>1914</v>
       </c>
       <c r="E241" t="s">
         <v>909</v>
@@ -36657,8 +37528,8 @@
       <c r="C242" t="s">
         <v>912</v>
       </c>
-      <c r="D242" t="s">
-        <v>1615</v>
+      <c r="D242" s="17" t="s">
+        <v>1915</v>
       </c>
       <c r="E242" t="s">
         <v>913</v>
@@ -36698,8 +37569,8 @@
       <c r="C243" t="s">
         <v>914</v>
       </c>
-      <c r="D243" t="s">
-        <v>1616</v>
+      <c r="D243" s="17" t="s">
+        <v>1916</v>
       </c>
       <c r="E243" t="s">
         <v>915</v>
@@ -36739,8 +37610,8 @@
       <c r="C244" t="s">
         <v>916</v>
       </c>
-      <c r="D244" t="s">
-        <v>1617</v>
+      <c r="D244" s="17" t="s">
+        <v>1917</v>
       </c>
       <c r="E244" t="s">
         <v>917</v>
@@ -36780,8 +37651,8 @@
       <c r="C245" t="s">
         <v>920</v>
       </c>
-      <c r="D245" t="s">
-        <v>1618</v>
+      <c r="D245" s="17" t="s">
+        <v>1918</v>
       </c>
       <c r="E245" t="s">
         <v>921</v>
@@ -36821,8 +37692,8 @@
       <c r="C246" t="s">
         <v>925</v>
       </c>
-      <c r="D246" t="s">
-        <v>1619</v>
+      <c r="D246" s="17" t="s">
+        <v>1919</v>
       </c>
       <c r="E246" t="s">
         <v>926</v>
@@ -36862,8 +37733,8 @@
       <c r="C247" t="s">
         <v>930</v>
       </c>
-      <c r="D247" t="s">
-        <v>930</v>
+      <c r="D247" s="17" t="s">
+        <v>1920</v>
       </c>
       <c r="E247" t="s">
         <v>931</v>
@@ -36903,8 +37774,8 @@
       <c r="C248" t="s">
         <v>935</v>
       </c>
-      <c r="D248" t="s">
-        <v>1620</v>
+      <c r="D248" s="17" t="s">
+        <v>1921</v>
       </c>
       <c r="E248" t="s">
         <v>936</v>
@@ -36944,8 +37815,8 @@
       <c r="C249" t="s">
         <v>938</v>
       </c>
-      <c r="D249" t="s">
-        <v>1621</v>
+      <c r="D249" s="17" t="s">
+        <v>1922</v>
       </c>
       <c r="E249" t="s">
         <v>939</v>
@@ -36985,8 +37856,8 @@
       <c r="C250" t="s">
         <v>942</v>
       </c>
-      <c r="D250" t="s">
-        <v>1622</v>
+      <c r="D250" s="17" t="s">
+        <v>1923</v>
       </c>
       <c r="E250" t="s">
         <v>943</v>
@@ -37026,8 +37897,8 @@
       <c r="C251" t="s">
         <v>945</v>
       </c>
-      <c r="D251" t="s">
-        <v>1623</v>
+      <c r="D251" s="17" t="s">
+        <v>1924</v>
       </c>
       <c r="E251" t="s">
         <v>946</v>
@@ -37067,8 +37938,8 @@
       <c r="C252" t="s">
         <v>950</v>
       </c>
-      <c r="D252" t="s">
-        <v>1624</v>
+      <c r="D252" s="17" t="s">
+        <v>1925</v>
       </c>
       <c r="E252" t="s">
         <v>951</v>
@@ -37108,8 +37979,8 @@
       <c r="C253" t="s">
         <v>952</v>
       </c>
-      <c r="D253" t="s">
-        <v>1625</v>
+      <c r="D253" s="17" t="s">
+        <v>1926</v>
       </c>
       <c r="E253" t="s">
         <v>953</v>
@@ -37149,8 +38020,8 @@
       <c r="C254" t="s">
         <v>956</v>
       </c>
-      <c r="D254" t="s">
-        <v>1626</v>
+      <c r="D254" s="17" t="s">
+        <v>1927</v>
       </c>
       <c r="E254" t="s">
         <v>957</v>
@@ -37190,8 +38061,8 @@
       <c r="C255" t="s">
         <v>960</v>
       </c>
-      <c r="D255" t="s">
-        <v>1627</v>
+      <c r="D255" s="17" t="s">
+        <v>1928</v>
       </c>
       <c r="E255" t="s">
         <v>961</v>
@@ -37231,8 +38102,8 @@
       <c r="C256" t="s">
         <v>964</v>
       </c>
-      <c r="D256" t="s">
-        <v>1628</v>
+      <c r="D256" s="17" t="s">
+        <v>1929</v>
       </c>
       <c r="E256" t="s">
         <v>965</v>
@@ -37272,8 +38143,8 @@
       <c r="C257" t="s">
         <v>968</v>
       </c>
-      <c r="D257" t="s">
-        <v>1629</v>
+      <c r="D257" s="17" t="s">
+        <v>1930</v>
       </c>
       <c r="E257" t="s">
         <v>969</v>
@@ -37313,8 +38184,8 @@
       <c r="C258" t="s">
         <v>970</v>
       </c>
-      <c r="D258" t="s">
-        <v>1630</v>
+      <c r="D258" s="17" t="s">
+        <v>1931</v>
       </c>
       <c r="E258" t="s">
         <v>971</v>
@@ -37354,8 +38225,8 @@
       <c r="C259" t="s">
         <v>976</v>
       </c>
-      <c r="D259" t="s">
-        <v>976</v>
+      <c r="D259" s="17" t="s">
+        <v>1932</v>
       </c>
       <c r="E259" t="s">
         <v>977</v>
@@ -37398,8 +38269,8 @@
       <c r="C260" t="s">
         <v>982</v>
       </c>
-      <c r="D260" t="s">
-        <v>1631</v>
+      <c r="D260" s="17" t="s">
+        <v>1933</v>
       </c>
       <c r="E260" t="s">
         <v>983</v>
@@ -37442,8 +38313,8 @@
       <c r="C261" t="s">
         <v>988</v>
       </c>
-      <c r="D261" t="s">
-        <v>1632</v>
+      <c r="D261" s="17" t="s">
+        <v>1934</v>
       </c>
       <c r="E261" t="s">
         <v>989</v>
@@ -37486,8 +38357,8 @@
       <c r="C262" t="s">
         <v>991</v>
       </c>
-      <c r="D262" t="s">
-        <v>1633</v>
+      <c r="D262" s="17" t="s">
+        <v>1935</v>
       </c>
       <c r="E262" t="s">
         <v>992</v>
@@ -37530,8 +38401,8 @@
       <c r="C263" t="s">
         <v>994</v>
       </c>
-      <c r="D263" t="s">
-        <v>1634</v>
+      <c r="D263" s="17" t="s">
+        <v>1936</v>
       </c>
       <c r="E263" t="s">
         <v>995</v>
@@ -37574,8 +38445,8 @@
       <c r="C264" t="s">
         <v>997</v>
       </c>
-      <c r="D264" t="s">
-        <v>1635</v>
+      <c r="D264" s="17" t="s">
+        <v>1937</v>
       </c>
       <c r="E264" t="s">
         <v>998</v>
@@ -37618,8 +38489,8 @@
       <c r="C265" t="s">
         <v>1000</v>
       </c>
-      <c r="D265" t="s">
-        <v>1000</v>
+      <c r="D265" s="17" t="s">
+        <v>1938</v>
       </c>
       <c r="E265" t="s">
         <v>1001</v>
@@ -37662,8 +38533,8 @@
       <c r="C266" t="s">
         <v>1003</v>
       </c>
-      <c r="D266" t="s">
-        <v>1003</v>
+      <c r="D266" s="17" t="s">
+        <v>1939</v>
       </c>
       <c r="E266" t="s">
         <v>1004</v>
@@ -37706,8 +38577,8 @@
       <c r="C267" t="s">
         <v>1005</v>
       </c>
-      <c r="D267" t="s">
-        <v>1005</v>
+      <c r="D267" s="17" t="s">
+        <v>1940</v>
       </c>
       <c r="E267" t="s">
         <v>1006</v>
@@ -37750,8 +38621,8 @@
       <c r="C268" t="s">
         <v>1007</v>
       </c>
-      <c r="D268" t="s">
-        <v>1007</v>
+      <c r="D268" s="17" t="s">
+        <v>1941</v>
       </c>
       <c r="E268" t="s">
         <v>1008</v>
@@ -37794,8 +38665,8 @@
       <c r="C269" t="s">
         <v>1009</v>
       </c>
-      <c r="D269" t="s">
-        <v>1009</v>
+      <c r="D269" s="17" t="s">
+        <v>1942</v>
       </c>
       <c r="E269" t="s">
         <v>1010</v>
@@ -37838,8 +38709,8 @@
       <c r="C270" t="s">
         <v>1011</v>
       </c>
-      <c r="D270" t="s">
-        <v>1011</v>
+      <c r="D270" s="17" t="s">
+        <v>1943</v>
       </c>
       <c r="E270" t="s">
         <v>1012</v>
@@ -37879,8 +38750,8 @@
       <c r="C271" t="s">
         <v>1016</v>
       </c>
-      <c r="D271" t="s">
-        <v>1016</v>
+      <c r="D271" s="17" t="s">
+        <v>1944</v>
       </c>
       <c r="E271" t="s">
         <v>1017</v>
@@ -37920,8 +38791,8 @@
       <c r="C272" t="s">
         <v>1018</v>
       </c>
-      <c r="D272" t="s">
-        <v>1018</v>
+      <c r="D272" s="17" t="s">
+        <v>1945</v>
       </c>
       <c r="E272" t="s">
         <v>1019</v>
@@ -37961,8 +38832,8 @@
       <c r="C273" t="s">
         <v>1020</v>
       </c>
-      <c r="D273" t="s">
-        <v>1020</v>
+      <c r="D273" s="17" t="s">
+        <v>1946</v>
       </c>
       <c r="E273" t="s">
         <v>1021</v>
@@ -38002,8 +38873,8 @@
       <c r="C274" t="s">
         <v>1024</v>
       </c>
-      <c r="D274" t="s">
-        <v>1636</v>
+      <c r="D274" s="17" t="s">
+        <v>1947</v>
       </c>
       <c r="E274" t="s">
         <v>1025</v>
@@ -38046,8 +38917,8 @@
       <c r="C275" t="s">
         <v>1027</v>
       </c>
-      <c r="D275" t="s">
-        <v>1637</v>
+      <c r="D275" s="17" t="s">
+        <v>1948</v>
       </c>
       <c r="E275" t="s">
         <v>1028</v>
@@ -38090,8 +38961,8 @@
       <c r="C276" t="s">
         <v>1029</v>
       </c>
-      <c r="D276" t="s">
-        <v>1638</v>
+      <c r="D276" s="17" t="s">
+        <v>1949</v>
       </c>
       <c r="E276" t="s">
         <v>1030</v>
@@ -38134,8 +39005,8 @@
       <c r="C277" t="s">
         <v>1031</v>
       </c>
-      <c r="D277" t="s">
-        <v>1639</v>
+      <c r="D277" s="17" t="s">
+        <v>1950</v>
       </c>
       <c r="E277" t="s">
         <v>1032</v>
@@ -38178,8 +39049,8 @@
       <c r="C278" t="s">
         <v>1033</v>
       </c>
-      <c r="D278" t="s">
-        <v>1640</v>
+      <c r="D278" s="17" t="s">
+        <v>1951</v>
       </c>
       <c r="E278" t="s">
         <v>1034</v>
@@ -38222,8 +39093,8 @@
       <c r="C279" t="s">
         <v>1035</v>
       </c>
-      <c r="D279" t="s">
-        <v>1641</v>
+      <c r="D279" s="17" t="s">
+        <v>1952</v>
       </c>
       <c r="E279" t="s">
         <v>1036</v>
@@ -38266,8 +39137,8 @@
       <c r="C280" t="s">
         <v>1038</v>
       </c>
-      <c r="D280" t="s">
-        <v>1642</v>
+      <c r="D280" s="17" t="s">
+        <v>1953</v>
       </c>
       <c r="E280" t="s">
         <v>1039</v>
@@ -38313,8 +39184,8 @@
       <c r="C281" t="s">
         <v>1040</v>
       </c>
-      <c r="D281" t="s">
-        <v>1643</v>
+      <c r="D281" s="17" t="s">
+        <v>1954</v>
       </c>
       <c r="E281" t="s">
         <v>1041</v>
@@ -38357,8 +39228,8 @@
       <c r="C282" t="s">
         <v>1042</v>
       </c>
-      <c r="D282" t="s">
-        <v>1644</v>
+      <c r="D282" s="17" t="s">
+        <v>1955</v>
       </c>
       <c r="E282" t="s">
         <v>1043</v>
@@ -38401,8 +39272,8 @@
       <c r="C283" t="s">
         <v>1044</v>
       </c>
-      <c r="D283" t="s">
-        <v>1044</v>
+      <c r="D283" s="17" t="s">
+        <v>1956</v>
       </c>
       <c r="E283" t="s">
         <v>1045</v>
@@ -38445,8 +39316,8 @@
       <c r="C284" t="s">
         <v>1046</v>
       </c>
-      <c r="D284" t="s">
-        <v>1046</v>
+      <c r="D284" s="17" t="s">
+        <v>1957</v>
       </c>
       <c r="E284" t="s">
         <v>1047</v>
@@ -38492,8 +39363,8 @@
       <c r="C285" t="s">
         <v>1048</v>
       </c>
-      <c r="D285" t="s">
-        <v>1645</v>
+      <c r="D285" s="17" t="s">
+        <v>1958</v>
       </c>
       <c r="E285" t="s">
         <v>1049</v>
@@ -38536,8 +39407,8 @@
       <c r="C286" t="s">
         <v>1052</v>
       </c>
-      <c r="D286" t="s">
-        <v>1646</v>
+      <c r="D286" s="17" t="s">
+        <v>1959</v>
       </c>
       <c r="E286" t="s">
         <v>1053</v>
@@ -38580,8 +39451,8 @@
       <c r="C287" t="s">
         <v>1054</v>
       </c>
-      <c r="D287" t="s">
-        <v>1647</v>
+      <c r="D287" s="17" t="s">
+        <v>1960</v>
       </c>
       <c r="E287" t="s">
         <v>1055</v>
@@ -38624,8 +39495,8 @@
       <c r="C288" t="s">
         <v>1056</v>
       </c>
-      <c r="D288" t="s">
-        <v>1648</v>
+      <c r="D288" s="17" t="s">
+        <v>1961</v>
       </c>
       <c r="E288" t="s">
         <v>1057</v>
@@ -38668,8 +39539,8 @@
       <c r="C289" t="s">
         <v>1058</v>
       </c>
-      <c r="D289" t="s">
-        <v>1649</v>
+      <c r="D289" s="17" t="s">
+        <v>1962</v>
       </c>
       <c r="E289" t="s">
         <v>1059</v>
@@ -38712,8 +39583,8 @@
       <c r="C290" t="s">
         <v>1060</v>
       </c>
-      <c r="D290" t="s">
-        <v>1650</v>
+      <c r="D290" s="17" t="s">
+        <v>1963</v>
       </c>
       <c r="E290" t="s">
         <v>1061</v>
@@ -38756,8 +39627,8 @@
       <c r="C291" t="s">
         <v>1062</v>
       </c>
-      <c r="D291" t="s">
-        <v>1651</v>
+      <c r="D291" s="17" t="s">
+        <v>1964</v>
       </c>
       <c r="E291" t="s">
         <v>1063</v>
@@ -38803,8 +39674,8 @@
       <c r="C292" t="s">
         <v>1066</v>
       </c>
-      <c r="D292" t="s">
-        <v>1652</v>
+      <c r="D292" s="17" t="s">
+        <v>1965</v>
       </c>
       <c r="E292" t="s">
         <v>1067</v>
@@ -38850,8 +39721,8 @@
       <c r="C293" t="s">
         <v>1069</v>
       </c>
-      <c r="D293" t="s">
-        <v>1653</v>
+      <c r="D293" s="17" t="s">
+        <v>1966</v>
       </c>
       <c r="E293" t="s">
         <v>1070</v>
@@ -38891,8 +39762,8 @@
       <c r="C294" t="s">
         <v>1075</v>
       </c>
-      <c r="D294" t="s">
-        <v>1654</v>
+      <c r="D294" s="17" t="s">
+        <v>1967</v>
       </c>
       <c r="E294" t="s">
         <v>1076</v>
@@ -38932,8 +39803,8 @@
       <c r="C295" t="s">
         <v>1077</v>
       </c>
-      <c r="D295" t="s">
-        <v>1655</v>
+      <c r="D295" s="17" t="s">
+        <v>1968</v>
       </c>
       <c r="E295" t="s">
         <v>1078</v>
@@ -38976,8 +39847,8 @@
       <c r="C296" t="s">
         <v>1082</v>
       </c>
-      <c r="D296" t="s">
-        <v>1082</v>
+      <c r="D296" s="17" t="s">
+        <v>1969</v>
       </c>
       <c r="E296" t="s">
         <v>1083</v>
@@ -39020,8 +39891,8 @@
       <c r="C297" t="s">
         <v>1088</v>
       </c>
-      <c r="D297" t="s">
-        <v>1088</v>
+      <c r="D297" s="17" t="s">
+        <v>1970</v>
       </c>
       <c r="E297" t="s">
         <v>1089</v>
@@ -39064,8 +39935,8 @@
       <c r="C298" t="s">
         <v>1092</v>
       </c>
-      <c r="D298" t="s">
-        <v>1092</v>
+      <c r="D298" s="17" t="s">
+        <v>1971</v>
       </c>
       <c r="E298" t="s">
         <v>1093</v>
@@ -39108,8 +39979,8 @@
       <c r="C299" t="s">
         <v>1094</v>
       </c>
-      <c r="D299" t="s">
-        <v>1094</v>
+      <c r="D299" s="17" t="s">
+        <v>1972</v>
       </c>
       <c r="E299" t="s">
         <v>1095</v>
@@ -39152,7 +40023,7 @@
       <c r="C300" t="s">
         <v>1096</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D300" s="17" t="s">
         <v>1096</v>
       </c>
       <c r="E300" t="s">
@@ -39199,7 +40070,7 @@
       <c r="C301" t="s">
         <v>1098</v>
       </c>
-      <c r="D301" t="s">
+      <c r="D301" s="17" t="s">
         <v>1098</v>
       </c>
       <c r="E301" t="s">
@@ -39246,7 +40117,7 @@
       <c r="C302" t="s">
         <v>1100</v>
       </c>
-      <c r="D302" t="s">
+      <c r="D302" s="17" t="s">
         <v>1100</v>
       </c>
       <c r="E302" t="s">
@@ -39293,7 +40164,7 @@
       <c r="C303" t="s">
         <v>1102</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D303" s="17" t="s">
         <v>1102</v>
       </c>
       <c r="E303" t="s">
@@ -39340,7 +40211,7 @@
       <c r="C304" t="s">
         <v>1104</v>
       </c>
-      <c r="D304" t="s">
+      <c r="D304" s="17" t="s">
         <v>1104</v>
       </c>
       <c r="E304" t="s">
@@ -39387,7 +40258,7 @@
       <c r="C305" t="s">
         <v>1106</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D305" s="17" t="s">
         <v>1106</v>
       </c>
       <c r="E305" t="s">
@@ -39434,7 +40305,7 @@
       <c r="C306" t="s">
         <v>1108</v>
       </c>
-      <c r="D306" t="s">
+      <c r="D306" s="17" t="s">
         <v>1108</v>
       </c>
       <c r="E306" t="s">
@@ -39481,7 +40352,7 @@
       <c r="C307" t="s">
         <v>1110</v>
       </c>
-      <c r="D307" t="s">
+      <c r="D307" s="17" t="s">
         <v>1110</v>
       </c>
       <c r="E307" t="s">
@@ -39528,7 +40399,7 @@
       <c r="C308" t="s">
         <v>1112</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D308" s="17" t="s">
         <v>1112</v>
       </c>
       <c r="E308" t="s">
@@ -39575,7 +40446,7 @@
       <c r="C309" t="s">
         <v>1114</v>
       </c>
-      <c r="D309" t="s">
+      <c r="D309" s="17" t="s">
         <v>1656</v>
       </c>
       <c r="E309" t="s">
@@ -39619,7 +40490,7 @@
       <c r="C310" t="s">
         <v>1116</v>
       </c>
-      <c r="D310" t="s">
+      <c r="D310" s="17" t="s">
         <v>1657</v>
       </c>
       <c r="E310" t="s">
@@ -39663,7 +40534,7 @@
       <c r="C311" t="s">
         <v>1118</v>
       </c>
-      <c r="D311" t="s">
+      <c r="D311" s="17" t="s">
         <v>1658</v>
       </c>
       <c r="E311" t="s">
@@ -39707,7 +40578,7 @@
       <c r="C312" t="s">
         <v>1120</v>
       </c>
-      <c r="D312" t="s">
+      <c r="D312" s="17" t="s">
         <v>1659</v>
       </c>
       <c r="E312" t="s">
@@ -39754,7 +40625,7 @@
       <c r="C313" t="s">
         <v>1122</v>
       </c>
-      <c r="D313" t="s">
+      <c r="D313" s="17" t="s">
         <v>1660</v>
       </c>
       <c r="E313" t="s">
@@ -39801,7 +40672,7 @@
       <c r="C314" t="s">
         <v>1124</v>
       </c>
-      <c r="D314" t="s">
+      <c r="D314" s="17" t="s">
         <v>1661</v>
       </c>
       <c r="E314" t="s">
@@ -39848,7 +40719,7 @@
       <c r="C315" t="s">
         <v>1126</v>
       </c>
-      <c r="D315" t="s">
+      <c r="D315" s="17" t="s">
         <v>1126</v>
       </c>
       <c r="E315" t="s">
@@ -39895,7 +40766,7 @@
       <c r="C316" t="s">
         <v>1128</v>
       </c>
-      <c r="D316" t="s">
+      <c r="D316" s="17" t="s">
         <v>1128</v>
       </c>
       <c r="E316" t="s">
@@ -39942,7 +40813,7 @@
       <c r="C317" t="s">
         <v>1130</v>
       </c>
-      <c r="D317" t="s">
+      <c r="D317" s="17" t="s">
         <v>1130</v>
       </c>
       <c r="E317" t="s">
@@ -39989,8 +40860,8 @@
       <c r="C318" t="s">
         <v>1132</v>
       </c>
-      <c r="D318" t="s">
-        <v>1132</v>
+      <c r="D318" s="17" t="s">
+        <v>1973</v>
       </c>
       <c r="E318" t="s">
         <v>1133</v>
@@ -40036,8 +40907,8 @@
       <c r="C319" t="s">
         <v>1135</v>
       </c>
-      <c r="D319" t="s">
-        <v>1135</v>
+      <c r="D319" s="17" t="s">
+        <v>1974</v>
       </c>
       <c r="E319" t="s">
         <v>1136</v>
@@ -40080,8 +40951,8 @@
       <c r="C320" t="s">
         <v>1137</v>
       </c>
-      <c r="D320" t="s">
-        <v>1137</v>
+      <c r="D320" s="17" t="s">
+        <v>1975</v>
       </c>
       <c r="E320" t="s">
         <v>1138</v>
@@ -40124,8 +40995,8 @@
       <c r="C321" t="s">
         <v>1139</v>
       </c>
-      <c r="D321" t="s">
-        <v>1139</v>
+      <c r="D321" s="17" t="s">
+        <v>1976</v>
       </c>
       <c r="E321" t="s">
         <v>1140</v>
@@ -40162,8 +41033,8 @@
       <c r="C322" t="s">
         <v>1145</v>
       </c>
-      <c r="D322" t="s">
-        <v>1145</v>
+      <c r="D322" s="17" t="s">
+        <v>1977</v>
       </c>
       <c r="E322" t="s">
         <v>1146</v>
@@ -40200,8 +41071,8 @@
       <c r="C323" t="s">
         <v>1148</v>
       </c>
-      <c r="D323" t="s">
-        <v>1662</v>
+      <c r="D323" s="17" t="s">
+        <v>1978</v>
       </c>
       <c r="E323" t="s">
         <v>1149</v>
@@ -40238,8 +41109,8 @@
       <c r="C324" t="s">
         <v>1151</v>
       </c>
-      <c r="D324" t="s">
-        <v>1151</v>
+      <c r="D324" s="17" t="s">
+        <v>1979</v>
       </c>
       <c r="E324" t="s">
         <v>1152</v>
@@ -40276,8 +41147,8 @@
       <c r="C325" t="s">
         <v>1156</v>
       </c>
-      <c r="D325" t="s">
-        <v>1156</v>
+      <c r="D325" s="17" t="s">
+        <v>1980</v>
       </c>
       <c r="E325" t="s">
         <v>1157</v>
@@ -40314,8 +41185,8 @@
       <c r="C326" t="s">
         <v>1159</v>
       </c>
-      <c r="D326" t="s">
-        <v>1663</v>
+      <c r="D326" s="17" t="s">
+        <v>1981</v>
       </c>
       <c r="E326" t="s">
         <v>1160</v>
@@ -40352,8 +41223,8 @@
       <c r="C327" t="s">
         <v>615</v>
       </c>
-      <c r="D327" t="s">
-        <v>1546</v>
+      <c r="D327" s="17" t="s">
+        <v>1982</v>
       </c>
       <c r="E327" t="s">
         <v>616</v>
@@ -40396,8 +41267,8 @@
       <c r="C328" t="s">
         <v>621</v>
       </c>
-      <c r="D328" t="s">
-        <v>1547</v>
+      <c r="D328" s="17" t="s">
+        <v>1983</v>
       </c>
       <c r="E328" t="s">
         <v>622</v>
@@ -40440,8 +41311,8 @@
       <c r="C329" t="s">
         <v>1162</v>
       </c>
-      <c r="D329" t="s">
-        <v>1162</v>
+      <c r="D329" s="17" t="s">
+        <v>1984</v>
       </c>
       <c r="E329" t="s">
         <v>1163</v>
@@ -40484,8 +41355,8 @@
       <c r="C330" t="s">
         <v>1167</v>
       </c>
-      <c r="D330" t="s">
-        <v>1167</v>
+      <c r="D330" s="17" t="s">
+        <v>1985</v>
       </c>
       <c r="E330" t="s">
         <v>1168</v>
@@ -40528,8 +41399,8 @@
       <c r="C331" t="s">
         <v>1170</v>
       </c>
-      <c r="D331" t="s">
-        <v>1170</v>
+      <c r="D331" s="17" t="s">
+        <v>1986</v>
       </c>
       <c r="E331" t="s">
         <v>1171</v>
@@ -40572,8 +41443,8 @@
       <c r="C332" t="s">
         <v>1173</v>
       </c>
-      <c r="D332" t="s">
-        <v>1173</v>
+      <c r="D332" s="17" t="s">
+        <v>1987</v>
       </c>
       <c r="E332" t="s">
         <v>1174</v>
@@ -40616,8 +41487,8 @@
       <c r="C333" t="s">
         <v>1176</v>
       </c>
-      <c r="D333" t="s">
-        <v>1664</v>
+      <c r="D333" s="17" t="s">
+        <v>1988</v>
       </c>
       <c r="E333" t="s">
         <v>1177</v>
@@ -40660,8 +41531,8 @@
       <c r="C334" t="s">
         <v>1182</v>
       </c>
-      <c r="D334" t="s">
-        <v>1182</v>
+      <c r="D334" s="17" t="s">
+        <v>1989</v>
       </c>
       <c r="E334" t="s">
         <v>1183</v>
@@ -40704,8 +41575,8 @@
       <c r="C335" t="s">
         <v>1187</v>
       </c>
-      <c r="D335" t="s">
-        <v>1187</v>
+      <c r="D335" s="17" t="s">
+        <v>1990</v>
       </c>
       <c r="E335" t="s">
         <v>1188</v>
@@ -40748,8 +41619,8 @@
       <c r="C336" t="s">
         <v>1189</v>
       </c>
-      <c r="D336" t="s">
-        <v>1189</v>
+      <c r="D336" s="17" t="s">
+        <v>1991</v>
       </c>
       <c r="E336" t="s">
         <v>1190</v>
@@ -40792,8 +41663,8 @@
       <c r="C337" t="s">
         <v>1191</v>
       </c>
-      <c r="D337" t="s">
-        <v>1665</v>
+      <c r="D337" s="17" t="s">
+        <v>1992</v>
       </c>
       <c r="E337" t="s">
         <v>1192</v>
@@ -40836,8 +41707,8 @@
       <c r="C338" t="s">
         <v>1193</v>
       </c>
-      <c r="D338" t="s">
-        <v>1666</v>
+      <c r="D338" s="17" t="s">
+        <v>1993</v>
       </c>
       <c r="E338" t="s">
         <v>1194</v>
@@ -40880,8 +41751,8 @@
       <c r="C339" t="s">
         <v>1195</v>
       </c>
-      <c r="D339" t="s">
-        <v>1667</v>
+      <c r="D339" s="17" t="s">
+        <v>1994</v>
       </c>
       <c r="E339" t="s">
         <v>1196</v>
@@ -40924,8 +41795,8 @@
       <c r="C340" t="s">
         <v>1197</v>
       </c>
-      <c r="D340" t="s">
-        <v>1197</v>
+      <c r="D340" s="17" t="s">
+        <v>1995</v>
       </c>
       <c r="E340" t="s">
         <v>1198</v>
@@ -40968,8 +41839,8 @@
       <c r="C341" t="s">
         <v>1200</v>
       </c>
-      <c r="D341" t="s">
-        <v>1200</v>
+      <c r="D341" s="17" t="s">
+        <v>1996</v>
       </c>
       <c r="E341" t="s">
         <v>1201</v>
@@ -41012,8 +41883,8 @@
       <c r="C342" t="s">
         <v>1202</v>
       </c>
-      <c r="D342" t="s">
-        <v>1202</v>
+      <c r="D342" s="17" t="s">
+        <v>1997</v>
       </c>
       <c r="E342" t="s">
         <v>1203</v>
@@ -41056,8 +41927,8 @@
       <c r="C343" t="s">
         <v>1205</v>
       </c>
-      <c r="D343" t="s">
-        <v>1668</v>
+      <c r="D343" s="17" t="s">
+        <v>1998</v>
       </c>
       <c r="E343" t="s">
         <v>1206</v>
@@ -41100,8 +41971,8 @@
       <c r="C344" t="s">
         <v>1209</v>
       </c>
-      <c r="D344" t="s">
-        <v>1669</v>
+      <c r="D344" s="17" t="s">
+        <v>1999</v>
       </c>
       <c r="E344" t="s">
         <v>1210</v>
@@ -41141,8 +42012,8 @@
       <c r="C345" t="s">
         <v>1215</v>
       </c>
-      <c r="D345" t="s">
-        <v>1670</v>
+      <c r="D345" s="17" t="s">
+        <v>2000</v>
       </c>
       <c r="E345" t="s">
         <v>1216</v>
@@ -41185,8 +42056,8 @@
       <c r="C346" t="s">
         <v>1220</v>
       </c>
-      <c r="D346" t="s">
-        <v>1671</v>
+      <c r="D346" s="17" t="s">
+        <v>2001</v>
       </c>
       <c r="E346" t="s">
         <v>1221</v>
@@ -41229,8 +42100,8 @@
       <c r="C347" t="s">
         <v>1222</v>
       </c>
-      <c r="D347" t="s">
-        <v>1672</v>
+      <c r="D347" s="17" t="s">
+        <v>2002</v>
       </c>
       <c r="E347" t="s">
         <v>1223</v>
@@ -41273,8 +42144,8 @@
       <c r="C348" t="s">
         <v>1225</v>
       </c>
-      <c r="D348" t="s">
-        <v>1673</v>
+      <c r="D348" s="17" t="s">
+        <v>2003</v>
       </c>
       <c r="E348" t="s">
         <v>1226</v>
@@ -41323,8 +42194,8 @@
       <c r="C349" t="s">
         <v>1232</v>
       </c>
-      <c r="D349" t="s">
-        <v>1674</v>
+      <c r="D349" s="17" t="s">
+        <v>2004</v>
       </c>
       <c r="E349" t="s">
         <v>1233</v>
@@ -41373,8 +42244,8 @@
       <c r="C350" t="s">
         <v>1235</v>
       </c>
-      <c r="D350" t="s">
-        <v>1675</v>
+      <c r="D350" s="17" t="s">
+        <v>2005</v>
       </c>
       <c r="E350" t="s">
         <v>1236</v>
@@ -41423,8 +42294,8 @@
       <c r="C351" t="s">
         <v>1237</v>
       </c>
-      <c r="D351" t="s">
-        <v>1676</v>
+      <c r="D351" s="17" t="s">
+        <v>2006</v>
       </c>
       <c r="E351" t="s">
         <v>1238</v>
@@ -41473,8 +42344,8 @@
       <c r="C352" t="s">
         <v>1240</v>
       </c>
-      <c r="D352" t="s">
-        <v>1677</v>
+      <c r="D352" s="17" t="s">
+        <v>2007</v>
       </c>
       <c r="E352" t="s">
         <v>1241</v>
@@ -41523,8 +42394,8 @@
       <c r="C353" t="s">
         <v>1242</v>
       </c>
-      <c r="D353" t="s">
-        <v>1678</v>
+      <c r="D353" s="17" t="s">
+        <v>2008</v>
       </c>
       <c r="E353" t="s">
         <v>1243</v>
@@ -41573,8 +42444,8 @@
       <c r="C354" t="s">
         <v>1244</v>
       </c>
-      <c r="D354" t="s">
-        <v>1679</v>
+      <c r="D354" s="17" t="s">
+        <v>2009</v>
       </c>
       <c r="E354" t="s">
         <v>1245</v>
@@ -41623,8 +42494,8 @@
       <c r="C355" t="s">
         <v>1246</v>
       </c>
-      <c r="D355" t="s">
-        <v>1680</v>
+      <c r="D355" s="17" t="s">
+        <v>2010</v>
       </c>
       <c r="E355" t="s">
         <v>1247</v>
@@ -41673,8 +42544,8 @@
       <c r="C356" t="s">
         <v>1248</v>
       </c>
-      <c r="D356" t="s">
-        <v>1681</v>
+      <c r="D356" s="17" t="s">
+        <v>2011</v>
       </c>
       <c r="E356" t="s">
         <v>1249</v>
@@ -41723,8 +42594,8 @@
       <c r="C357" t="s">
         <v>1250</v>
       </c>
-      <c r="D357" t="s">
-        <v>1596</v>
+      <c r="D357" s="17" t="s">
+        <v>2012</v>
       </c>
       <c r="E357" t="s">
         <v>1251</v>
@@ -41773,8 +42644,8 @@
       <c r="C358" t="s">
         <v>1256</v>
       </c>
-      <c r="D358" t="s">
-        <v>1597</v>
+      <c r="D358" s="17" t="s">
+        <v>2013</v>
       </c>
       <c r="E358" t="s">
         <v>1257</v>
@@ -41823,8 +42694,8 @@
       <c r="C359" t="s">
         <v>1258</v>
       </c>
-      <c r="D359" t="s">
-        <v>1682</v>
+      <c r="D359" s="17" t="s">
+        <v>2014</v>
       </c>
       <c r="E359" t="s">
         <v>1259</v>
@@ -41873,8 +42744,8 @@
       <c r="C360" t="s">
         <v>1260</v>
       </c>
-      <c r="D360" t="s">
-        <v>1683</v>
+      <c r="D360" s="17" t="s">
+        <v>2015</v>
       </c>
       <c r="E360" t="s">
         <v>1261</v>
@@ -41923,8 +42794,8 @@
       <c r="C361" t="s">
         <v>1268</v>
       </c>
-      <c r="D361" t="s">
-        <v>1684</v>
+      <c r="D361" s="17" t="s">
+        <v>2016</v>
       </c>
       <c r="E361" t="s">
         <v>1269</v>
@@ -41973,8 +42844,8 @@
       <c r="C362" t="s">
         <v>1274</v>
       </c>
-      <c r="D362" t="s">
-        <v>1685</v>
+      <c r="D362" s="17" t="s">
+        <v>2017</v>
       </c>
       <c r="E362" t="s">
         <v>1275</v>
@@ -42023,8 +42894,8 @@
       <c r="C363" t="s">
         <v>1277</v>
       </c>
-      <c r="D363" t="s">
-        <v>1686</v>
+      <c r="D363" s="17" t="s">
+        <v>2018</v>
       </c>
       <c r="E363" t="s">
         <v>1278</v>
@@ -42073,8 +42944,8 @@
       <c r="C364" t="s">
         <v>1279</v>
       </c>
-      <c r="D364" t="s">
-        <v>1687</v>
+      <c r="D364" s="17" t="s">
+        <v>2019</v>
       </c>
       <c r="E364" t="s">
         <v>1280</v>
@@ -42123,8 +42994,8 @@
       <c r="C365" t="s">
         <v>1281</v>
       </c>
-      <c r="D365" t="s">
-        <v>1688</v>
+      <c r="D365" s="17" t="s">
+        <v>2020</v>
       </c>
       <c r="E365" t="s">
         <v>1282</v>
@@ -42173,8 +43044,8 @@
       <c r="C366" t="s">
         <v>1283</v>
       </c>
-      <c r="D366" t="s">
-        <v>1598</v>
+      <c r="D366" s="17" t="s">
+        <v>2021</v>
       </c>
       <c r="E366" t="s">
         <v>1284</v>
@@ -42223,8 +43094,8 @@
       <c r="C367" t="s">
         <v>1285</v>
       </c>
-      <c r="D367" t="s">
-        <v>1301</v>
+      <c r="D367" s="17" t="s">
+        <v>2022</v>
       </c>
       <c r="E367" t="s">
         <v>1286</v>
@@ -42273,8 +43144,8 @@
       <c r="C368" t="s">
         <v>1287</v>
       </c>
-      <c r="D368" t="s">
-        <v>1302</v>
+      <c r="D368" s="17" t="s">
+        <v>2023</v>
       </c>
       <c r="E368" t="s">
         <v>1288</v>
@@ -42323,8 +43194,8 @@
       <c r="C369" t="s">
         <v>1289</v>
       </c>
-      <c r="D369" t="s">
-        <v>1689</v>
+      <c r="D369" s="17" t="s">
+        <v>2024</v>
       </c>
       <c r="E369" t="s">
         <v>1290</v>
@@ -42373,8 +43244,8 @@
       <c r="C370" t="s">
         <v>1292</v>
       </c>
-      <c r="D370" t="s">
-        <v>1690</v>
+      <c r="D370" s="17" t="s">
+        <v>2025</v>
       </c>
       <c r="E370" t="s">
         <v>1293</v>
@@ -42423,8 +43294,8 @@
       <c r="C371" t="s">
         <v>1294</v>
       </c>
-      <c r="D371" t="s">
-        <v>1691</v>
+      <c r="D371" s="17" t="s">
+        <v>2026</v>
       </c>
       <c r="E371" t="s">
         <v>1295</v>
@@ -42473,8 +43344,8 @@
       <c r="C372" t="s">
         <v>830</v>
       </c>
-      <c r="D372" t="s">
-        <v>1692</v>
+      <c r="D372" s="23" t="s">
+        <v>2027</v>
       </c>
       <c r="E372" t="s">
         <v>831</v>
@@ -42520,8 +43391,8 @@
       <c r="C373" t="s">
         <v>834</v>
       </c>
-      <c r="D373" t="s">
-        <v>1693</v>
+      <c r="D373" s="23" t="s">
+        <v>2028</v>
       </c>
       <c r="E373" t="s">
         <v>835</v>
@@ -42567,8 +43438,8 @@
       <c r="C374" t="s">
         <v>1297</v>
       </c>
-      <c r="D374" t="s">
-        <v>1694</v>
+      <c r="D374" s="17" t="s">
+        <v>2029</v>
       </c>
       <c r="E374" t="s">
         <v>1049</v>
@@ -42614,8 +43485,8 @@
       <c r="C375" t="s">
         <v>1298</v>
       </c>
-      <c r="D375" t="s">
-        <v>1695</v>
+      <c r="D375" s="17" t="s">
+        <v>1959</v>
       </c>
       <c r="E375" t="s">
         <v>1053</v>
@@ -42661,8 +43532,8 @@
       <c r="C376" t="s">
         <v>1299</v>
       </c>
-      <c r="D376" t="s">
-        <v>1696</v>
+      <c r="D376" s="17" t="s">
+        <v>2030</v>
       </c>
       <c r="E376" t="s">
         <v>1055</v>
@@ -42708,8 +43579,8 @@
       <c r="C377" t="s">
         <v>1300</v>
       </c>
-      <c r="D377" t="s">
-        <v>1697</v>
+      <c r="D377" s="17" t="s">
+        <v>2031</v>
       </c>
       <c r="E377" t="s">
         <v>1057</v>
@@ -42755,8 +43626,8 @@
       <c r="C378" t="s">
         <v>837</v>
       </c>
-      <c r="D378" t="s">
-        <v>1698</v>
+      <c r="D378" s="17" t="s">
+        <v>1895</v>
       </c>
       <c r="E378" t="s">
         <v>838</v>
@@ -42802,8 +43673,8 @@
       <c r="C379" t="s">
         <v>1301</v>
       </c>
-      <c r="D379" t="s">
-        <v>1699</v>
+      <c r="D379" s="17" t="s">
+        <v>2032</v>
       </c>
       <c r="E379" t="s">
         <v>1059</v>
@@ -42849,8 +43720,8 @@
       <c r="C380" t="s">
         <v>1302</v>
       </c>
-      <c r="D380" t="s">
-        <v>1700</v>
+      <c r="D380" s="17" t="s">
+        <v>1963</v>
       </c>
       <c r="E380" t="s">
         <v>1061</v>
@@ -42896,8 +43767,8 @@
       <c r="C381" t="s">
         <v>826</v>
       </c>
-      <c r="D381" t="s">
-        <v>1595</v>
+      <c r="D381" s="17" t="s">
+        <v>2033</v>
       </c>
       <c r="E381" t="s">
         <v>827</v>
@@ -42940,8 +43811,8 @@
       <c r="C382" t="s">
         <v>1303</v>
       </c>
-      <c r="D382" t="s">
-        <v>1651</v>
+      <c r="D382" s="17" t="s">
+        <v>2034</v>
       </c>
       <c r="E382" t="s">
         <v>1063</v>
@@ -42984,8 +43855,8 @@
       <c r="C383" t="s">
         <v>1304</v>
       </c>
-      <c r="D383" t="s">
-        <v>1652</v>
+      <c r="D383" s="17" t="s">
+        <v>1965</v>
       </c>
       <c r="E383" t="s">
         <v>1067</v>
@@ -43028,8 +43899,8 @@
       <c r="C384" t="s">
         <v>1306</v>
       </c>
-      <c r="D384" t="s">
-        <v>1701</v>
+      <c r="D384" s="17" t="s">
+        <v>2035</v>
       </c>
       <c r="E384" t="s">
         <v>1307</v>
@@ -43072,8 +43943,8 @@
       <c r="C385" t="s">
         <v>1312</v>
       </c>
-      <c r="D385" t="s">
-        <v>1312</v>
+      <c r="D385" s="17" t="s">
+        <v>2036</v>
       </c>
       <c r="E385" t="s">
         <v>1313</v>
@@ -43116,8 +43987,8 @@
       <c r="C386" t="s">
         <v>1317</v>
       </c>
-      <c r="D386" t="s">
-        <v>1702</v>
+      <c r="D386" s="17" t="s">
+        <v>2037</v>
       </c>
       <c r="E386" t="s">
         <v>1318</v>
@@ -43163,8 +44034,8 @@
       <c r="C387" t="s">
         <v>1324</v>
       </c>
-      <c r="D387" t="s">
-        <v>1703</v>
+      <c r="D387" s="17" t="s">
+        <v>2038</v>
       </c>
       <c r="E387" t="s">
         <v>1325</v>
@@ -43210,8 +44081,8 @@
       <c r="C388" t="s">
         <v>1327</v>
       </c>
-      <c r="D388" t="s">
-        <v>1704</v>
+      <c r="D388" s="17" t="s">
+        <v>2039</v>
       </c>
       <c r="E388" t="s">
         <v>1328</v>
@@ -43254,8 +44125,8 @@
       <c r="C389" t="s">
         <v>1335</v>
       </c>
-      <c r="D389" t="s">
-        <v>1705</v>
+      <c r="D389" s="17" t="s">
+        <v>2040</v>
       </c>
       <c r="E389" t="s">
         <v>1336</v>
@@ -43295,8 +44166,8 @@
       <c r="C390" t="s">
         <v>1343</v>
       </c>
-      <c r="D390" t="s">
-        <v>1706</v>
+      <c r="D390" s="17" t="s">
+        <v>2041</v>
       </c>
       <c r="E390" t="s">
         <v>1344</v>
@@ -43424,8 +44295,8 @@
       <c r="C393" t="s">
         <v>1352</v>
       </c>
-      <c r="D393" t="s">
-        <v>1709</v>
+      <c r="D393" s="17" t="s">
+        <v>2042</v>
       </c>
       <c r="E393" t="s">
         <v>1353</v>
@@ -43468,8 +44339,8 @@
       <c r="C394" t="s">
         <v>1357</v>
       </c>
-      <c r="D394" t="s">
-        <v>1710</v>
+      <c r="D394" s="17" t="s">
+        <v>2043</v>
       </c>
       <c r="E394" t="s">
         <v>1358</v>
@@ -43512,8 +44383,8 @@
       <c r="C395" t="s">
         <v>1359</v>
       </c>
-      <c r="D395" t="s">
-        <v>1711</v>
+      <c r="D395" s="17" t="s">
+        <v>2044</v>
       </c>
       <c r="E395" t="s">
         <v>1360</v>
@@ -43556,8 +44427,8 @@
       <c r="C396" t="s">
         <v>1364</v>
       </c>
-      <c r="D396" t="s">
-        <v>1712</v>
+      <c r="D396" s="17" t="s">
+        <v>2045</v>
       </c>
       <c r="E396" t="s">
         <v>1365</v>
@@ -43597,8 +44468,8 @@
       <c r="C397" t="s">
         <v>1369</v>
       </c>
-      <c r="D397" t="s">
-        <v>1713</v>
+      <c r="D397" s="17" t="s">
+        <v>2046</v>
       </c>
       <c r="E397" t="s">
         <v>1370</v>
@@ -43638,8 +44509,8 @@
       <c r="C398" t="s">
         <v>1371</v>
       </c>
-      <c r="D398" t="s">
-        <v>1714</v>
+      <c r="D398" s="17" t="s">
+        <v>2047</v>
       </c>
       <c r="E398" t="s">
         <v>1372</v>
@@ -43679,7 +44550,7 @@
       <c r="C399" t="s">
         <v>1378</v>
       </c>
-      <c r="D399" t="s">
+      <c r="D399" s="17" t="s">
         <v>1715</v>
       </c>
       <c r="E399" t="s">
@@ -43720,7 +44591,7 @@
       <c r="C400" t="s">
         <v>1384</v>
       </c>
-      <c r="D400" t="s">
+      <c r="D400" s="17" t="s">
         <v>1716</v>
       </c>
       <c r="E400" t="s">
@@ -43761,7 +44632,7 @@
       <c r="C401" t="s">
         <v>1388</v>
       </c>
-      <c r="D401" t="s">
+      <c r="D401" s="17" t="s">
         <v>1717</v>
       </c>
       <c r="E401" t="s">
@@ -43802,7 +44673,7 @@
       <c r="C402" t="s">
         <v>1392</v>
       </c>
-      <c r="D402" t="s">
+      <c r="D402" s="17" t="s">
         <v>1718</v>
       </c>
       <c r="E402" t="s">
@@ -43843,7 +44714,7 @@
       <c r="C403" t="s">
         <v>1396</v>
       </c>
-      <c r="D403" t="s">
+      <c r="D403" s="17" t="s">
         <v>1719</v>
       </c>
       <c r="E403" t="s">
@@ -43884,7 +44755,7 @@
       <c r="C404" t="s">
         <v>1400</v>
       </c>
-      <c r="D404" t="s">
+      <c r="D404" s="17" t="s">
         <v>1720</v>
       </c>
       <c r="E404" t="s">
@@ -43925,7 +44796,7 @@
       <c r="C405" t="s">
         <v>1405</v>
       </c>
-      <c r="D405" t="s">
+      <c r="D405" s="17" t="s">
         <v>1721</v>
       </c>
       <c r="E405" t="s">
@@ -43969,8 +44840,8 @@
       <c r="C406" t="s">
         <v>1413</v>
       </c>
-      <c r="D406" t="s">
-        <v>1722</v>
+      <c r="D406" s="17" t="s">
+        <v>2048</v>
       </c>
       <c r="E406" t="s">
         <v>1414</v>
@@ -44010,8 +44881,8 @@
       <c r="C407" t="s">
         <v>1418</v>
       </c>
-      <c r="D407" t="s">
-        <v>1723</v>
+      <c r="D407" s="17" t="s">
+        <v>2049</v>
       </c>
       <c r="E407" t="s">
         <v>1419</v>
@@ -44051,8 +44922,8 @@
       <c r="C408" t="s">
         <v>1422</v>
       </c>
-      <c r="D408" t="s">
-        <v>1724</v>
+      <c r="D408" s="17" t="s">
+        <v>2050</v>
       </c>
       <c r="E408" t="s">
         <v>1423</v>
@@ -44092,8 +44963,8 @@
       <c r="C409" t="s">
         <v>1426</v>
       </c>
-      <c r="D409" t="s">
-        <v>1725</v>
+      <c r="D409" s="17" t="s">
+        <v>2051</v>
       </c>
       <c r="E409" t="s">
         <v>1427</v>
@@ -44133,8 +45004,8 @@
       <c r="C410" t="s">
         <v>1430</v>
       </c>
-      <c r="D410" t="s">
-        <v>1726</v>
+      <c r="D410" s="17" t="s">
+        <v>2052</v>
       </c>
       <c r="E410" t="s">
         <v>1431</v>
@@ -44174,8 +45045,8 @@
       <c r="C411" t="s">
         <v>1434</v>
       </c>
-      <c r="D411" t="s">
-        <v>1727</v>
+      <c r="D411" s="17" t="s">
+        <v>2053</v>
       </c>
       <c r="E411" t="s">
         <v>1435</v>
@@ -44215,8 +45086,8 @@
       <c r="C412" t="s">
         <v>1438</v>
       </c>
-      <c r="D412" t="s">
-        <v>1728</v>
+      <c r="D412" s="17" t="s">
+        <v>2054</v>
       </c>
       <c r="E412" t="s">
         <v>1439</v>
@@ -44256,8 +45127,8 @@
       <c r="C413" t="s">
         <v>1442</v>
       </c>
-      <c r="D413" t="s">
-        <v>1442</v>
+      <c r="D413" s="17" t="s">
+        <v>2055</v>
       </c>
       <c r="E413" t="s">
         <v>1443</v>
@@ -44298,15 +45169,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000503671339772D47B39F92F2EEA085B5" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a2ee7fa1e0ce84c7e06acf2c50de0179">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e0d7c005-640d-42c3-949b-3e848f1f0a16" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cb6dd0d5024b83c4fb99a53ee0073b3" ns2:_="">
     <xsd:import namespace="e0d7c005-640d-42c3-949b-3e848f1f0a16"/>
@@ -44450,6 +45312,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -44457,14 +45328,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603922C8-EC62-4087-8098-1FA754799F32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9FAE0B1-9AF3-4984-A457-2418A308B63F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -44478,6 +45341,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{603922C8-EC62-4087-8098-1FA754799F32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
